--- a/Model Comparison - 7B SFT vs 7B Chat SFT (n100).xlsx
+++ b/Model Comparison - 7B SFT vs 7B Chat SFT (n100).xlsx
@@ -471,27 +471,43 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">50 people can't form their own city.
-It takes 1000 people.
-When you meet the 1000 people requirement, you get a charter.
-That charter is a document that says you get to form a city, but you still have to follow all the state rules. </t>
+          <t xml:space="preserve">
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+* Yes.
+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1. It's not just land. You need to have a basic infrastructure, like water, electricity, and roads.
-2. You need to have a basic government. That means you need to have a mayor, council, and police force.
-3. You need to have a basic economy. That means you need to have business</t>
+          <t>1) If it's in a rural area, you'll probably be the first and only residents. 
+2) If it's in an area that is already built up, you'll probably just be annexed by the existing city. 
+3) If you're in an area that isn't built up, you'</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'rand1': 81958, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 41190}</t>
+          <t>{'rand1': 35740, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 94259}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDgxOTU4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0MTE5MH0='</t>
+          <t>b'eydyYW5kMSc6IDM1NzQwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5NDI1OX0='</t>
         </is>
       </c>
     </row>
@@ -506,30 +522,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1) The cost of the camera.
-2) The cost of the storage.
-3) The cost of the recording software.
-4) The cost of transmitting the footage to the police/authorities.
-5) The cost of the police/authorities to view the footage.
-6) The cost of the police/authorities to store the footage.
-7) The cost of the police/authorities to dispose</t>
+          <t>1440p is 240p 3 times. It's not 3 times better. It's not even twice better. 
+[LINK]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1. They are already pretty good quality.
-2. They are not expensive enough to be a huge factor in the cost of a CCTV system.
-3. They are not expected to produce high quality video.</t>
+          <t xml:space="preserve">
+[This video]([LINK]#t=20s) is a good example of how they are made. 
+Basically, they are cheap because they are made for a specific purpose. 
+CCTV cameras are cheap because they are made to serve a specific purpose. </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'rand1': 80836, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 71582}</t>
+          <t>{'rand1': 73017, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 78891}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDgwODM2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3MTU4Mn0='</t>
+          <t>b'eydyYW5kMSc6IDczMDE3LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDc4ODkxfQ=='</t>
         </is>
       </c>
     </row>
@@ -544,25 +556,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. He still owns a huge chunk of Microsoft.  He also has investments in other companies. 
-2. He doesn't give ALL of his money away.  He's still a billionaire. </t>
+          <t>1) There is a lot of money in the world. It is estimated that the richest 1% of the world's population has more wealth than the poorest 50% combined.
+2) He is not giving away most of his money. He is giving away most of his *net* worth. He has pledged to give away 95% of his net worth (which is about $80 billion). That still leaves him with</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1) He is still the CEO of Microsoft.
-2) He has invested in some very successful businesses.
-3) He has donated a lot of money to the Bill and Melinda Gates Foundation.</t>
+          <t xml:space="preserve">1. He's still giving away most of his money. He's not giving away enough to be in the top 100 wealthiest people in the world.
+2. He's still working. He's not just sitting around, he's running a large company and it's a lot of work.
+3. He's smart and invests in things that will make him more money in the future.
+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'rand1': 49346, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 87915}</t>
+          <t>{'rand1': 77236, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 34812}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQ5MzQ2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4NzkxNX0='</t>
+          <t>b'eydyYW5kMSc6IDc3MjM2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzNDgxMn0='</t>
         </is>
       </c>
     </row>
@@ -577,31 +590,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1. They have a lot of resources.
-2. They have a lot of people. 
-3. They have a lot of land. 
-4. They have a lot of money. 
-5. They have a big, powerful military. 
-6. They have a lot of allies. 
-Those are the top 6, but I could go on.
-EDIT: I don't know how</t>
+          <t>1. The British didn't think it was going to be anything.
+2. The US became a country in a time of peace.
+3. The US had a lot of land and resources.
+4. The US had a lot of people.
+5. The US had the newest technology.
+6. The US was a democracy, which was a good way to govern a country back then.
+The US had an</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1) Industrial revolution - they were able to produce more goods than anyone else, and were able to sell them.
-2) Government - they were able to do things like build the highway system and have a military big enough to fight wars and protect their country.
-3) Ideology - they were able to convince people to come to the US to live, and to believe in the US way of life.</t>
+          <t>1) we had the [British Empire]([LINK]-2014-02-26-british-empire-map.jpg) to fight and gain power from.
+2) we took a lot of land from the Native Americans, and they helped us grow and expand.
+3) we are still young, and we have been constantly at war.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'rand1': 24505, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 28915}</t>
+          <t>{'rand1': 97410, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 16662}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDI0NTA1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyODkxNX0='</t>
+          <t>b'eydyYW5kMSc6IDk3NDEwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxNjY2Mn0='</t>
         </is>
       </c>
     </row>
@@ -616,24 +628,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1) White gold is made by coating a yellow gold alloy with a layer of rhodium. This is done by running the gold through a bath of rhodium, which sticks to the gold.
-2) White gold can be reused, but it's not the same as yellow gold. White gold has a different chemical makeup, so it doesn't have the same properties as yellow gold. For example, it's</t>
+          <t>1. White Gold is not actually white. It's a *very* light yellow.
+2. It's made of the element Platinum. It's a little more malleable than Yellow Gold, but not much.
+3. The only reason why it's white is because the metal itself is actually white. It's not added to the gold, it's the gold that's *substituted</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14k gold is 58.3% gold and 41.7% other stuff, so it's pretty close to the 58.5% gold you get in white gold. The other stuff is usually nickel or palladium, and it's just a matter of coloring the gold with those metals.
-Most white gold is also plated with rhodium, which is a shiny metal</t>
+          <t xml:space="preserve"> It is alloyed with white rhodium. The rhodium is a very brittle metal, so it has to be plated on top of the yellow gold.  The rhodium wears away, and the gold underneath shows through.  The rhodium can be replated, but the cost is prohibitive, so the gold is usually just sold as yellow gold.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'rand1': 38589, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 44345}</t>
+          <t>{'rand1': 68011, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 50363}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDM4NTg5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDQ0MzQ1fQ=='</t>
+          <t>b'eydyYW5kMSc6IDY4MDExLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDUwMzYzfQ=='</t>
         </is>
       </c>
     </row>
@@ -648,27 +660,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1) Humans are omnivores. That means we can eat all sorts of stuff that's bad for our teeth. Grass, leaves, nuts, seeds, insects, meat, etc. 
-2) We didn't have toothpaste. We had twigs. 
-3) Our teeth are designed to grind down our food. That's why we have molars. 
-4) Our ancest</t>
+          <t>1) To stop the buildup of plaque. 2) To get rid of the plaque. 3) To prevent the buildup of tartar. 4) To stop the tartar from building up.
+The plaque and tartar are the primary causes of tooth decay.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1) Sugar is a major source of energy. Bacteria that feed on sugar produce acid. The more sugar you consume, the more acid you produce. The acid breaks down the minerals in your tooth enamel, and the tooth becomes weaker and more susceptible to decay.
-2) Bacteria that feed on sugar produce gas, which is the main source of bad breath.
-3) If you don't</t>
+          <t xml:space="preserve">
+This is a great article from the Smithsonian.
+[LINK]
+EDIT: I read your comment and I'm pretty sure you already know this, but you were asking why we need to brush our teeth. This article explains the history of brushing your teeth.
+Edit 2: I'm not sure if the article is completely accurate. I'm not a scientist or anything. </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'rand1': 14275, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 16602}</t>
+          <t>{'rand1': 84589, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 25232}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDE0Mjc1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxNjYwMn0='</t>
+          <t>b'eydyYW5kMSc6IDg0NTg5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDI1MjMyfQ=='</t>
         </is>
       </c>
     </row>
@@ -683,27 +695,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1) They have a lot of debt.
-2) They have a lot of money.
-3) They don't actually have the lifestyle you witnessed.
-4) They don't actually live there.
-5) They don't actually have the money you witnessed.
-6) They don't actually have the lifestyle you witnessed.</t>
+          <t>1. Americans work longer hours than people in other countries.
+2. Americans are paid more than people in other countries.
+3. Americans have been living in debt for the past 20 years.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2000-2006 was a very good time for the US economy.</t>
+          <t>1. They have a much higher income. 2. They have a much lower cost of living. 3. They have a much lower tax burden.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'rand1': 93890, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 49699}</t>
+          <t>{'rand1': 9942, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 57760}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDkzODkwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0OTY5OX0='</t>
+          <t>b'eydyYW5kMSc6IDk5NDIsICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDU3NzYwfQ=='</t>
         </is>
       </c>
     </row>
@@ -718,25 +727,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>200 years ago there was no insurance. 
-Insurance began as mutuals, where you put some money in a pot and then you share it out if you had a claim. 
-Insurance companies then said "wait a minute, I can do this better" so they started taking on more</t>
+          <t>1) it was a natural progression. 
+2) Health insurance was originally only available through your job because the tax code allowed your employer to deduct the cost of the insurance. So, it was a benefit that was offered to attract employees. 
+3) The tax code changed and now anyone can buy health</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Medical insurance is a heavily regulated market.  Insurance companies are not allowed to sell insurance across state lines, and they are not allowed to compete based on cost or coverage, only on customer service.  This is done to protect the customer.  They can be required to cover certain things in order to</t>
+          <t>1. Insurance is a business.
+2. Insurance is a business that relies on a large pool of customers to be profitable.
+3. A large pool of customers is more likely to be stable, so insurance companies want to be able to rely on them.
+4. The most reliable group of</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'rand1': 4856, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 74849}</t>
+          <t>{'rand1': 73861, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 94073}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQ4NTYsICdkb19zd2FwJzogVHJ1ZSwgJ2Fuc3dlcjEnOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNzQ4NDl9'</t>
+          <t>b'eydyYW5kMSc6IDczODYxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5NDA3M30='</t>
         </is>
       </c>
     </row>
@@ -751,829 +762,840 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1) Often in the sense of "give up" you're not giving up something you have, you're giving up something you've had. For example, "I gave up smoking" rather than "I'll give up smoking" - and in the past tense, "I gave up" rather than "I give up".
-2) The word "up</t>
+          <t>1. "Give up" is a phrase that is used in a lot of different ways. You can give up something for a while, or you can give up something for good, or you can give up something temporarily.
+2. The phrase "fill up" is a bit more straightforward. It just means to add something to a container, and it can be used for liquids or sol</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>1) "Give up" is a good example. In the past, there were no elevators or escalators. You had to walk up stairs, or go up in a horse and carriage. The stairs were very steep, and it was hard to go up. You were "giving up" your energy to go up.
+2) "Fill up" is similar.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>{'rand1': 19002, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 83789}</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDE5MDAyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDgzNzg5fQ=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Why do I feel tired after a sitting down for a long time? Eg: a long car ride</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1) The muscles used to support your posture are tired.
+2) The muscles involved in breathing are tired.
+3) The muscles involved in blood circulation are tired.
+4) Your brain is tired.
+You have to use more energy than you think to do nothing.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Blood pools in your legs and feet.
+2. You're not using your muscles to do anything(you're not walking/stirring)
+3. Your heart isn't pumping the same as when you're walking around
+</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>{'rand1': 14987, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 46244}</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDE0OTg3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0NjI0NH0='</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Why, in the 21st century, do passports still need to be books with stamps? Are the stamps even a credible source of information?</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1. It's easier to carry than a hard drive.
+2. It's easier to carry than a smart card.
+3. It's easier to carry than a magnetic stripe.
+4. It's easier to carry than a barcode.
+5. It's easier to carry than RFID.
+6. It's</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1. The stamps are a physical record of your travels.
+2. The stamps are a physical record of the date and time of your arrival and departure.
+3. The stamps are a physical record of your visa status.
+4. The stamps are a physical record of your visa status.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>{'rand1': 72331, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 38770}</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDcyMzMxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDM4NzcwfQ=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>What did whaling ships in the 1800's do with the whales after killing them?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1. They cut off their lips and put them in a barrel. 
+2. They would throw the whale carcass overboard and let it sink. 
+3. They would haul the whale carcass back on board and use it as a ballast. 
+4. They would cut the whale carcass into manageable pieces and use it as food for the crew. 
+[Source](</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1. They cut off their heads and put them on the beach or a barge.
+2. They cut off their tails and keep them to make a harpoon.
+3. They cut off their fins and keep them to make a fishing rod.
+4. They cut up the rest of the whale and put it in barrels and floated it back to shore.
+5. They ate</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>{'rand1': 23360, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 49476}</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDIzMzYwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0OTQ3Nn0='</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Are all languages descended from the same language that existed scores of thousands of years ago? If not, how did separate 'lineages' arise on their own?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1) yes, they all descended from a common ancestor
+2) they diverged and changed, just like any other species.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3rd language.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>{'rand1': 48293, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 72491}</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDQ4MjkzLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3MjQ5MX0='</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>If I wanted to start my own internet company, where would I get my internet from?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1) get a 100 megabit of fiber optic cable into your house
+2) install your own router/switch
+3) get an IP address from your ISP (Internet Service Provider)
+4) get your own domain name
+5) purchase a server from a hosting company
+6) install your software on the server
+7) configure your server to be accessible to your customers
+8) market your service to your customers.
+</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Most ISPs get their internet from other ISPs called Tier 1 ISPs.  They have backbones.  You can pay to get your internet from them. 
+Want to know more?  [LINK]-1-isp/</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>{'rand1': 5507, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 67329}</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDU1MDcsICdkb19zd2FwJzogVHJ1ZSwgJ2Fuc3dlcjEnOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNjczMjl9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Why is Zimmerman called white, but Obama called black?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1. Zimmerman is white.
+2. Obama is biracial.  His dad was black.  His mom was white.  He identifies with his black side.  But he's also white.
+3. Zimmerman is white.  His dad was white.  His mom was white.  He identifies with his white side.  But he's also black.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1. Zimmerman is half white and half Hispanic. 
+2. Obama is half white and half black.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>{'rand1': 93162, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 76134}</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDkzMTYyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3NjEzNH0='</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Can a human live off vitamin tablets/supplements without consumption of any food?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1) People who are severely malnourished will not be able to absorb vitamins. 
+2) There is a point where all the vitamins in the world are not going to make you better. 
+3) Vitamin supplements are very expensive.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26 years ago I was diagnosed with a very rare form of anemia.  The only way to treat it was to eat a diet of mostly meat and vegetables.  I had to eat 3 times the amount of food of the average person.  I managed it for almost 2 years.  The food tasted like shit.  I was overweight so I lost a lot of weight.  The food tasted like shit. </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>{'rand1': 30625, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 57320}</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDMwNjI1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDU3MzIwfQ=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>When I plug my headphones into the microphone port, why does it work?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&amp;gt; Why does it work?
+It doesn't. 
+&amp;gt; Why do I think it does? 
+Because you hear the sound of the microphone picking up the sound of the headphone. 
+&amp;gt; How does it work?
+The microphone amplifies the sound from both the headphone and the outside world. 
+&amp;gt; Why does it work?
+It doesn</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1. Because it's not in the jack. 
+2. Because it's not a jack. 
+3. Because it's not a jack.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>{'rand1': 97918, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 9961}</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDk3OTE4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5OTYxfQ=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Why do so many buildings in New York City always have a scaffolding roof over the sidewalk, or all over the front?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. They are unfinished.
+2. It's a cost-effective way to cover the building until it's finished. 
+3. It's a cost-effective way to protect the building from wind damage until it's finished.
+Older buildings in New York City have a lot of brick and stone, and they are in poor condition. </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1. The scaffolding is a safety measure to protect the public from falling debris.
+2. It creates an additional surface area for advertising.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>{'rand1': 68377, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 53265}</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDY4Mzc3LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDUzMjY1fQ=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Why does China defend North Korea so often at the international level?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1) China and North Korea share borders, and China is very protective of its land.
+2) China and North Korea are allies, and China doesn't want to upset its allies.
+It's not like China and North Korea are the best of friends, but they're allies, and allies don't do things like attack each other.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1) They have a shared border. 2) They have a shared ideology. 3) They have a shared history. 4) They have a shared economy. 5) They have a shared enemy. </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>{'rand1': 11032, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 97359}</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDExMDMyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5NzM1OX0='</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Is there a difference between the Devil, Lucifer, Satan, Damian, etc.? What are they exactly?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1. The Devil is satan.
+2. The Devil is Lucifer.
+3. Lucifer is a fallen angel.
+4. Lucifer is the Devil.
+5. Lucifer is satan.
+It's all the same thing.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Lucifer: The light-bringer. In many religions, "Lucifer" is the name for Satan. In Christianity, it's the name of the angel who was cast out of heaven because he wanted to be God. 
+Devil: From the Latin word, "diabolus," which means "slanderer." 
+Damian: Doesn't have</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>{'rand1': 82666, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 16968}</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDgyNjY2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDE2OTY4fQ=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>How does Facebook target-advertise the very product I just looked up in Google/other websites, despite me being logged out of my account at the time?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1) facebook has a shadow profile of every user with all of your likes, interests, searches etc.
+2) facebook knows what pages you like and what things you search for.
+3) facebook knows what you clicked on.
+4) facebook has a system that can match those things against its shadow profiles and target them at you.
+Your log in is just the cher</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1) They have a cookie in your browser that tells them what you searched for.
+2) They have a database of every search you've ever done, so they know a lot about your interests.
+3) They can use your search history to create profiles of your "typical preferences", and then use that to target ads at you.
+[Here's an</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>{'rand1': 88738, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 24954}</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDg4NzM4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyNDk1NH0='</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>People claim electric cars pollute more than gasoline cars, if true how ?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1) They use more energy to make the same amount of power.
+2) They don't use the same amount of energy to make the same amount of power.
+3) They don't use the same amount of energy to make the same amount of power as a car powered by the same fuel, but with a more efficient engine.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+They are correct. 
+The pollution from an electric car is generated by the power plant that produces the electricity. 
+Electricity is generated by burning coal or natural gas, and these power plants are much dirtier than the average car. 
+Electric cars are much cleaner than gasoline cars, but the difference is minimal compared to the difference between coal and gasoline.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>{'rand1': 79619, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 78718}</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDc5NjE5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDc4NzE4fQ=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Why can people admit to crimes on documentaries and not get convicted?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1) The person is dead and can't be prosecuted
+2) The person is not in the US
+3) The person is not a US citizen
+4) The person is not under US jurisdiction</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1. Admitting to a crime on camera is pretty easy to discredit.
+2. Documentaries are often made with a specific narrative in mind, and the story is constructed to be interesting.
+For example, if you are making a documentary about a guy who is accused of murder, and you get the guy to admit to it on camera, it's going to be a compelling story. But if you are making a documentary about a</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>{'rand1': 53365, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 46426}</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDUzMzY1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0NjQyNn0='</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Why do most predatory animals choose not to eat humans?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1) Humans are one of the few animals that will fight back with a good chance of winning. 2) Humans are also one of the few animals that will kill you for eating a member of the same species. 3) There's also the fact that humans tend to be smarter and faster than most animals, so they're a lot more dangerous to predators than most animals.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1) Humans have a lot of meat of course, but it takes a lot of effort to get to it.
+2) We have a lot of weapons.
+3) We are a lot more intelligent. 
+4) We are a lot more dangerous.
+5) We are a lot more interesting.
+6) We are a lot more communicative.
+7) We are a lot more adaptable.
+8)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>{'rand1': 83633, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 86479}</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDgzNjMzLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4NjQ3OX0='</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>What would happen if someone went in and murdered Kim Jong-un? Would someone else step up, or would the country be a better place?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1. The North Korean military, which is a very powerful force, would take control of the government.
+2. The North Korean military would probably kill the new leader, and continue to be the government.
+3. Nothing would change, and North Korea would continue to be a repressive regime.
+This is of course assuming that the leader is killed, and not just the son of the leader.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30 years ago we were all sure that the USSR would collapse after the death of Stalin.  But it didn't happen.  The chain of command is so well established in North Korea that it will just keep going.  Probably to the detriment of the citizens.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>{'rand1': 85173, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 57308}</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDg1MTczLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDU3MzA4fQ=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>How does a mirror of a video make it harder to takedown?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1) They're not mirrors, they're just copies of the video. 
+2) The videos are hosted on YouTube, and YouTube has a policy of not removing videos that are not infringing on copyright. 
+3) YouTube is a publicly traded company and has a legal obligation to follow the law. 
+4) The law is written so that it's almost impossible to definitively prove that a video is an infringement</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1. Mirror sites are hosted on different servers.
+2. Mirror sites are not as well known as the original site.
+3. Mirror sites are not as well known as the original site.
+4. Mirror sites are not as well known as the original site.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>{'rand1': 67808, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 75088}</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDY3ODA4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDc1MDg4fQ=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Why do currency Symbols always have one or two lines through them? And where is the difference between one line, two lines, horizontal and vertical ones?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+&amp;gt;Why do currency Symbols always have one or two lines through them
+To distinguish the currency from the number. 
+&amp;gt;And where is the difference between one line, two lines, horizontal and vertical ones?
+The differences are arbitrary. 
+&amp;gt;Why are there different symbols for different currencies?
+The same reason there are different symbols for different</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1. The symbol is based on the shape of the coin.
+2. The line represents the metal content.
+3. The vertical line represents the coin, the horizontal line represents the paper.
+4. The vertical line represents the coin, the horizontal line represents the currency.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>{'rand1': 51591, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 59484}</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDUxNTkxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1OTQ4NH0='</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>If a "female" identifies as a male would they be **legally** allowed to be topless on tv?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1. In order to be legally allowed to be topless on TV, they'd have to get permission from the network.
+2. If they got permission, that'd be the end of it. If they didn't get permission, that'd be the end of it.
+3. A "female" identifying as a "male" is not a legal or social issue</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The FCC has a pretty narrow definition of "female", and it has to do with the shape of their breasts.  There is a requirement that they be "feminine", and that's interpreted pretty strictly.  
+I'm not sure if there's a specific rule about dick.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>{'rand1': 74864, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 22685}</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDc0ODY0LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDIyNjg1fQ=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Why does earth axial tilt dictate seasons but the distance from the sun does not?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1. Earth's orbit is elliptical, which means that the distance between the Earth and the Sun varies throughout the year.  When Earth is closer to the Sun, it gets more sunlight, and when it's further away, it gets less.
+2. Earth's orbit is tilted at an angle of about 23.5 degrees, which means that the Northern Hemisphere is tilted towards the Sun during summer</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+*The distance from the sun does dictate seasons. If the earth was closer to the sun, it would be hotter. If the earth was further from the sun, it would be colder.
+The tilt of the earth is what causes the seasons. If the earth was flat, there would be no seasons because the sun would always be shining directly down on the same part of the earth.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>{'rand1': 25510, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 71431}</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDI1NTEwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDcxNDMxfQ=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Why it's very hard to open the freezer right after you close it?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1. The door is cold, so you need to get something very cold to make it open.
+2. The door is cold, so you need to get something very cold to make it open.
+3. The door is cold, so you need to get something very cold to make it open.
+4. The door is cold, so you need to get something very cold to make it open.
+5. The door is cold, so you need</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+In the freezer, the air is frozen, so when you open the door, you're letting the air back into the freezer, which makes it colder. 
+In contrast, when you close the door, you're taking the air out, which makes it warmer. 
+When you open the door, you're doing both at the same time, and your body heats up, so its harder to cool down. </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>{'rand1': 17762, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 44165}</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDE3NzYyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDQ0MTY1fQ=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PED's (Performance Enhancing Drugs) long-term effect</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>50% increase in testosterone levels over a few months.
+It's not permanent, but it's enough to make a huge difference.  Some athletes are able to maintain that level for several years.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> When you have a certain level of endurance, you are able to perform tasks that would normally be out of your range.  When you take a drug that allows you to perform at that level for a longer period of time, you are able to do things you normally wouldn't be able to do.
+However, the drugs you are taking are not able to increase your natural ability, only extend the period you are able to perform at your current level.  So while</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>{'rand1': 16568, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 1186}</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>b'eydyYW5kMSc6IDE2NTY4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxMTg2fQ=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>(Non American here) How do storage units work in America (the kind where Walter White stashed his money)?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">
 [LINK]
 </t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>{'rand1': 38754, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 77974}</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDM4NzU0LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDc3OTc0fQ=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Why do I feel tired after a sitting down for a long time? Eg: a long car ride</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1. Your brain is used to you moving around a lot. When you sit down, it gets confused and thinks you are sleepy.
-2. When you sit down, your blood flow slows down. When you stand up, your blood flow increases, which makes you feel more alert.
-3. The veins in your legs stretch out when you sit down. When you stand up, they get compressed, which makes you feel more alert.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. Muscles are tired from holding posture
-2. Blood pressure is low
-3. Muscles are sore from the pressure of your bones
-4. You're not breathing efficiently
-</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>{'rand1': 33773, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 86750}</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDMzNzczLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4Njc1MH0='</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Why, in the 21st century, do passports still need to be books with stamps? Are the stamps even a credible source of information?</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>20 page passports are expensive to produce.  
-Therefore, a passport with 20 pages is more expensive than a passport with 48 pages.  
-Therefore, the US doesn't use 20 page passports.  
-Of course, the US is not the only country that doesn't use 20 page passports.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1. It's a paper trail. 
-2. There are still places where the stamps are the only way to prove you've been to a place. 
-3. It's the way it's always been.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>{'rand1': 70023, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 52019}</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDcwMDIzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDUyMDE5fQ=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>What did whaling ships in the 1800's do with the whales after killing them?</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1) They butchered the carcass, then cut it up into pieces and stored it in salt water.
-2) They also used the blubber for lighting
-3) There were also treated as a food source, but it wasn't as plentiful as the meat, so it was only eaten in times of hardship</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1. Meat.
-2. Oil (for lamps).
-3. The bones were used to make nitric acid, which is essential for the making of gunpowder.</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>{'rand1': 86739, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 93083}</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDg2NzM5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5MzA4M30='</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Are all languages descended from the same language that existed scores of thousands of years ago? If not, how did separate 'lineages' arise on their own?</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1) Some languages are descended from the same language that existed scores of thousands of years ago.
-2) Some languages are descended from a different language that existed scores of thousands of years ago.
-3) Some languages are descended from a different language that existed scores of thousands of years ago.
-4) Some languages are descended from a different language that existed scores of thousands</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18,000 years is a long time. It's not a fixed amount of time, but a range of time. There hasn't always been a single language, but there hasn't always been many languages either. 
-As far as I know, there is no accepted theory as to how language evolved. </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>{'rand1': 28801, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 43188}</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDI4ODAxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0MzE4OH0='</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>If I wanted to start my own internet company, where would I get my internet from?</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1. Get some space on a server.
-2. Get a domain name.
-3. Upload your files to the server.
-4. Use a script to direct people to your domain name.
-If you have more questions, ask them.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1. You'd buy internet from a company like Verizon or AT&amp;amp;T.
-2. You'd buy internet from a company like Level 3, a company that provides internet services to other companies.
-3. You'd buy internet from a company like NTT, a company that provides internet services to other companies.
-4. You'd buy internet from a company like Google.
-5. You'd build</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>{'rand1': 22266, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 27388}</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDIyMjY2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyNzM4OH0='</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Why is Zimmerman called white, but Obama called black?</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1) Zimmerman is a German name.  It's not necessarily a white name.  It's just a name.
-2) Obama is not a black name.  It's a white name.  His father was a Kenyan.  His mother was white.  He is a white man.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-They are not the same. 
-"White" is a race. 
-"Black" is a skin color.
-It's like saying "I'm a redhead." 
-</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>{'rand1': 59193, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 28450}</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDU5MTkzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDI4NDUwfQ=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Can a human live off vitamin tablets/supplements without consumption of any food?</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. You would need to get a lot of food in order to get the right amount of vitamins.
-2. Your body needs more than the vitamins in the supplements, it also needs the other nutrients found in food.
-3. If you get enough vitamins your body can turn them into the nutrients it needs.
-4. Vitamins are only a small part of the nutrients you need.
-</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1. You are not a machine.  Your body requires energy from food to function.  That energy is used to power your organs and keep your body going.  If you're not eating, you're not functioning.
-2. Your body also needs certain chemicals to function.  If you're not eating, you're not getting enough of those chemicals.
-3. You also need fiber to keep your</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>{'rand1': 81052, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 38941}</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDgxMDUyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzODk0MX0='</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>When I plug my headphones into the microphone port, why does it work?</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1. It's a transformer.  The headphones are the primary and the microphone is the secondary.  When one is connected to one side of the transformer, the other is connected to the other side.  The transformer can switch the voltage but not the current.  When you use the headphones, you're getting the audio signal (voltage) from the microphone (secondary) and the microphone (primary) is</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.  Your headphones are wired to the microphone jack (plugged in).
-2.  Your microphone is wired to the headphone jack (plugged in).
-3.  The microphone jack is wired to the headphone jack (plugged in).
-4.  The microphone jack is wired to the speaker jack (plugged in).
-5.  The speaker jack is</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>{'rand1': 62875, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 34677}</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDYyODc1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDM0Njc3fQ=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Why do so many buildings in New York City always have a scaffolding roof over the sidewalk, or all over the front?</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1) They're not building a new building, they're renovating one that already exists. 2) The building is too close to the sidewalk to build a new roof. 3) The building is too close to it's neighbors to build a new roof. 4) The building is too close to it's neighbors to build a new roof. 5) The building is too close</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1) To protect the building from debris 2) To allow for the building to be cleaned 3) To allow the building to be repaired 4) To allow for the building to be painted 5) To allow for the building to be renovated 6) To allow for the building to be inspected 7) To allow for the building to be replaced 8) To allow for the</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>{'rand1': 70830, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 49353}</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDcwODMwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDQ5MzUzfQ=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Why does China defend North Korea so often at the international level?</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1. North Korea is a buffer state, keeping the Americans from just marching into China.
-2. China is in a position to dictate terms to the US.  If they can threaten the US with North Korea, they can extort more concessions from the US.
-3. The North Korean military is a deterrent against invasion by South Korea.  If China wants to invade and take over North Korea, they can't do it without a fight.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1) China has a long history of being invaded by foreign forces, and they are not interested in allowing this to happen again.
-2) China has an incentive to prevent the US from attacking North Korea, as the US may use this as a pretext to attack China.
-3) The Chinese government has a long history of threatening foreign nations, and they are not interested in having the US threaten China.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>{'rand1': 67888, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 29735}</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDY3ODg4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyOTczNX0='</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Is there a difference between the Devil, Lucifer, Satan, Damian, etc.? What are they exactly?</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The term Satan is used in many different ways.
-In the Old Testament, Satan is the name of a fallen angel. 
-In the New Testament, Satan is used to mean evil in general. 
-In the Middle Ages, Satan was a name used for the Devil. 
-In modern times, Satanism is a religion. 
-The word Lucifer is</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-There is no such thing as the devil.  If you were to ask a Christian about this, they will tell you it is a metaphor for sin.  They would tell you that the devil does not exist, but that sin does.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>{'rand1': 31745, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 39214}</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDMxNzQ1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDM5MjE0fQ=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>How does Facebook target-advertise the very product I just looked up in Google/other websites, despite me being logged out of my account at the time?</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1. Facebook has access to a lot of data, including what you search for.
-2. They have a lot of ways of tracking you, including cookies, and by analyzing your browser.
-3. They can use that information to make targeted ads.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1) They track you across the web using your IP address.
-2) They have a database of ads you have interacted with in the past.
-3) They use a program to look for the best ads to show you based on your previous interactions.
-4) They have a system that will show you ads if you are a user of a product you have shown interest in in</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>{'rand1': 27911, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 22325}</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDI3OTExLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyMjMyNX0='</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>People claim electric cars pollute more than gasoline cars, if true how ?</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1) The battery manufacturing process is much more polluting than gasoline.
-2) The electricity needed to charge the car is generated from a variety of sources.  Most of these sources are polluting.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1. The power plants that generate the electricity.
-2. The transmission lines that carry the electricity.
-3. The battery.
-4. The battery charger.
-5. The battery recycler.
-6. The battery disposal.
-7. The manufacturing process.
-8. The fuel used to power the manufacturing process.
-9. The mining process to get the minerals used in the battery</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>{'rand1': 8963, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 70405}</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDg5NjMsICdkb19zd2FwJzogVHJ1ZSwgJ2Fuc3dlcjEnOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNzA0MDV9'</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Why can people admit to crimes on documentaries and not get convicted?</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1. They are not admitting to crimes, they are discussing their role in the crime. 
-2. They are discussing their role in the crime while in prison, and have no reason to lie about it. 
-3. They are discussing their role in the crime while in prison and are not under oath. 
-Edit: 4. Often, people are interviewed while in prison. In prison, there is no reason for them</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1) Confessions are not always admissible in court. 
-2) The confession is not always accurate. 
-3) There may be other reasons to convict. 
-4) The general public does not understand the court system. 
-But mostly...
-1) Confessions are not always admissible in court.</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>{'rand1': 34439, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 4109}</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDM0NDM5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0MTA5fQ=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Why do most predatory animals choose not to eat humans?</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1) Humans are full of parasites that are not so tasty.
-2) Humans are not as tasty as other prey, and they are not as easy to get at.
-3) Humans are not that tasty. </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1. They don't need to.
-2. Humans are much more dangerous than a large animal could ever be.
-3. Humans are a lot smarter and more resourceful than most predators.
-4. Humans have weapons.
-There's a lot more to it than that, but those are the main reasons.</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>{'rand1': 4259, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 63049}</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDQyNTksICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDYzMDQ5fQ=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>What would happen if someone went in and murdered Kim Jong-un? Would someone else step up, or would the country be a better place?</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1) The North Korean government is basically a family affair, so there are plenty of other people who would be involved in the decision to take over.
-2) The North Korean government is basically a family affair, so there are plenty of other people who would be involved in the decision to take over.
-3) The North Korean government is basically a family affair, so there are plenty of other people who</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1. The country would be a better place. 2. North Korea would be a better place. 3. Kim Jong-un would be dead. 4. Kim Jong-un's family would be dead. 5. Kim Jong-un's cronies would be dead. 6. North Korea would be a better place. 7. Kim Jong-un would</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>{'rand1': 56755, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 36160}</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDU2NzU1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDM2MTYwfQ=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>How does a mirror of a video make it harder to takedown?</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1) you have to prove that the video was used without permission.  If you can't prove that, you can't sue.  
-2) even if you do prove it, you have to sue the *person* who uploaded the video.  The video can still be taken down if it's a copyright violation.  But the person who uploaded it can't be sued for copyright infringement.
-3) You can't</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-[LINK]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>{'rand1': 69734, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 5929}</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDY5NzM0LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDU5Mjl9'</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Why do currency Symbols always have one or two lines through them? And where is the difference between one line, two lines, horizontal and vertical ones?</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1. They are used to distinguish one currency from another.
-2. The lines are usually horizontal.  The lines can be vertical, but it's much less common.  When vertical, it is usually to show that the currency is "new" or "recently introduced", or that it has a different value than the regular currency.  For example, the Euro has a vertical line through it</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>100 years ago, currency symbols were not standardized. There were a lot of different symbols for different countries, so you couldn't easily transfer money between countries. In 1946, several countries got together and decided on a standard symbol and design. It has to be easy to read and recognize, and it has to look good in a foreign country.
-The horizontal line means that the</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>{'rand1': 86490, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 59439}</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDg2NDkwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1OTQzOX0='</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>If a "female" identifies as a male would they be **legally** allowed to be topless on tv?</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1. Yes, but they would not be allowed to be topless on a male only TV show.
-2. Yes, but they would not be allowed to be topless on a show with a female audience.
-3. Yes, but they would not be allowed to be topless on a show with a mixed audience.
-4. Yes, but they would not be allowed to be to</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-It's not legally allowed. It's a social construct. If you're willing to wear a bra and go topless in public, then you're not a woman. </t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>{'rand1': 64938, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 98739}</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDY0OTM4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDk4NzM5fQ=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Why does earth axial tilt dictate seasons but the distance from the sun does not?</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1) Earth's axial tilt is only 23.5 degrees.
-2) Earth's orbit is only about 93 million miles away from the sun.
-3) Earth's orbit is only about 180 degrees away from the sun.
-4) Earth's orbit is only about 1,000 times bigger than the sun.
-5) Earth's orbit is only about</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-The axial tilt is the main reason for seasons. The distance of the sun is the main reason why the sun is hot.</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>{'rand1': 13117, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 88257}</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDEzMTE3LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDg4MjU3fQ=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Why it's very hard to open the freezer right after you close it?</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. You're less likely to make a mess if you open the freezer slowly. 
-2. You're less likely to make a mess if you close it slowly. 
-When you close the freezer, you're compressing the air in there, and air is really hard to compress.  When you open it, that air has to expand, and it expands faster if you open it slowly. </t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1) The door itself has a certain amount of friction when it's open, and when you close it, the door has to overcome that friction to open.
-2) The door has a certain amount of "stickiness" when it's closed, and when you open it, the door has to overcome that stickiness as well.
-3) Both of these effects are dependent on the temperature of the freezer. If the freezer is too</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>{'rand1': 25307, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 76793}</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDI1MzA3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3Njc5M30='</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>PED's (Performance Enhancing Drugs) long-term effect</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1) We are all full of things that are bad for us.  A lot of people don't get sick from the things they eat.  They just build up a tolerance.
-2) Exercise is one of the few things that can kill you.  So, when you work out, you are essentially killing yourself off.  It's your body's way of saying, "Hey, enough of this.  We need to get rid</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1. I get a lot of energy.
-2. I get stronger.
-3. I get more endurance.
-4. I feel better.
-The long term effects are that you get tired faster, you can't get as much nitrogen into your muscles, and you get more inflammation.
-If I were a professional athlete, I would only use PEDs for a short period of time.  After that, your body</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>{'rand1': 59485, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 59347}</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>b'eydyYW5kMSc6IDU5NDg1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDU5MzQ3fQ=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>(Non American here) How do storage units work in America (the kind where Walter White stashed his money)?</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>1. You rent a unit.
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1. You pay a fee to rent a unit.
 2. You put your stuff in the unit.
-3. You pay a monthly fee for the unit.
-4. You can access your stuff whenever you want.
-If you have a super fancy unit you can also have a key to get into the unit.
-It's a safe place to store things that you might need in the future.
-You can rent a unit that is</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10x10x10 is a standard size. You pay a monthly fee to store things there. The fees are based on the size of the unit and how long you want to store things. You can store anything you want there. 
-Source: I own a storage unit. </t>
+3. You pay the rent every month for as long as you have stuff in the unit.
+4. You can take your stuff out at any time, but you have to pay the rent for the time you had the unit (and you have to pay the fee for the unit to be opened).
+The renter has to pay</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>{'rand1': 6296, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 56347}</t>
+          <t>{'rand1': 84974, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 56827}</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDYyOTYsICdkb19zd2FwJzogVHJ1ZSwgJ2Fuc3dlcjEnOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNTYzNDd9'</t>
+          <t>b'eydyYW5kMSc6IDg0OTc0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1NjgyN30='</t>
         </is>
       </c>
     </row>
@@ -1588,26 +1610,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Elderly people are not generally capable of procreating. 
-2. Most people don't care about the risk of birth defects because they don't happen very often. 
-3. Incest is generally banned because it is a taboo which is socially useful. </t>
+          <t>1) Incest is shunned for cultural reasons and not biological reasons.
+2) Inbreeding is usually not a problem if the parents are related to a certain degree, but not too closely. However, with the elderly, the parents are generally much closer related than the acceptable degree of relatedness (as measured in genetic distance). 
+3) Inbreeding causes gen</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">1: Incest is shunned because it's a psychological crutch for people to keep from having to deal with their own issues. Incest is only a problem because of the emotional fallout.
-2: The elderly are generally not at risk of having children. 
-3: There are many elderly people who have kids. </t>
+          <t>1) Society has a tendency to shun anything that is different.
+2) Inbreeding is a lot more likely in small communities, especially in the past, and is therefore more likely to be concentrated in one region or group.
+3) Inbreeding has been shown to increase the risk of birth defects.
+4) The elderly have a much lower chance of</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>{'rand1': 19377, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 46931}</t>
+          <t>{'rand1': 36503, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 90039}</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDE5Mzc3LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDQ2OTMxfQ=='</t>
+          <t>b'eydyYW5kMSc6IDM2NTAzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDkwMDM5fQ=='</t>
         </is>
       </c>
     </row>
@@ -1622,25 +1645,24 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1) Shelter is a good thing. We evolved in a hostile environment. Sitting in a cave is great. Sitting in a cave by yourself is bad.
-2) We are social animals. We evolved to live in groups. We are not good at living alone.</t>
+          <t xml:space="preserve">2 things: 
+1. It's really, really hard to be happy all by yourself.
+2. It's really hard to be happy all by yourself with no money. </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1) We evolved to live in small groups with a strong sense of community. When you isolate yourself from that, you start to feel like you don't quite belong anymore.
-2) Humans have a strong sense of empathy - when you see others in pain, you feel it too. When you're alone, you're not getting the support that you would from a community.
-3) Humans are also social creatures - we have a need to feel</t>
+          <t>1. It's evolutionary. Humans evolved as pack animals. 100,000 years of living in a group.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>{'rand1': 11148, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 96918}</t>
+          <t>{'rand1': 94198, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 8868}</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDExMTQ4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5NjkxOH0='</t>
+          <t>b'eydyYW5kMSc6IDk0MTk4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4ODY4fQ=='</t>
         </is>
       </c>
     </row>
@@ -1655,26 +1677,26 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t xml:space="preserve">1. The Marshalls were a federal agency that was setup to protect the Federal Courts and the Federal Judges. The FBI was setup to investigate crimes against the United States.
+2. The Marshalls were federal and could only investigate federal crimes. The FBI was setup to investigate both federal and state crimes.
+3. The Marshalls were not setup to investigate organized crime. The FBI was setup to investigate organized crime.
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t xml:space="preserve">
-The FBI is a federal agency while the Marshal's service is a branch of the US Justice department. 
-The FBI handles the investigation of federal crimes, 
-The Marshal's Service handles the service of court orders, warrants, and the like. </t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1) The FBI does more than just law enforcement.  It's a *whole* intelligence gathering, *whole* counter-terrorism, *whole* crime fighting organization.  
-2) The Marshall's Service is a *limited* law enforcement agency.  It's still a good organization, and it's still used for certain things, but it's not the right tool for a *lot* of</t>
+[LINK]-fbi-was-created-to-do-what-the-us-marshals-couldnt-do-why-the-fbi-is-still-here-today/</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>{'rand1': 4383, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 7519}</t>
+          <t>{'rand1': 12284, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 20457}</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQzODMsICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDc1MTl9'</t>
+          <t>b'eydyYW5kMSc6IDEyMjg0LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDIwNDU3fQ=='</t>
         </is>
       </c>
     </row>
@@ -1689,28 +1711,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1. The British Navy was the strongest in the world.
-2. The British were the most active in colonizing the world.
-3. The British had the most trade.
-4. The British were one of the most technologically advanced countries in the world.
-5. The British had the most money.</t>
+          <t>1. They had a navy.
+2. They were willing to go to war to get it.
+3. They had a common culture.
+4. They had a common language.
+5. They had a common religion.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1) They had the ability to produce more food per person than most colonies. This allowed them to take more people with them.
-2) They were the first to use steam power which allowed them to have better transportation. This allowed them to reach areas that other countries couldn't.
-3) They had the ability to industrialize faster than other countries. This allowed them to produce more weapons and have</t>
+          <t>1) The British Navy was superior to all other navies at the time.  It had 100's of ships and a large number of skilled sailors.  The British were able to protect their colonies from pirates and other European nations.  This allowed the colonies to grow unchecked.
+2) The British were able to offer a superior standard of living to their colonies.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>{'rand1': 97427, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 2551}</t>
+          <t>{'rand1': 44952, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 81826}</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDk3NDI3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyNTUxfQ=='</t>
+          <t>b'eydyYW5kMSc6IDQ0OTUyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4MTgyNn0='</t>
         </is>
       </c>
     </row>
@@ -1725,27 +1746,26 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>100 million dollars is not a massive net worth. Its a pretty large net worth, but not massive.</t>
+          <t>1500000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1. They have a huge accountant department.
-2. They have a huge legal department.
-3. They have huge banks.
-4. They have a huge investment department.
-5. They have a huge "private equity" department.
-6. They have a huge real estate department.</t>
+          <t>1) They have financial advisors and accountants that do it for them.
+2) They have a family trust that is managed by a family member.
+3) They have a business that is run by a partner or employee.
+4) They have an investment firm that manages their money.
+Basically, they have people that make sure their money is safe and growing.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>{'rand1': 25079, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 20446}</t>
+          <t>{'rand1': 23674, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 508}</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDI1MDc5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyMDQ0Nn0='</t>
+          <t>b'eydyYW5kMSc6IDIzNjc0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1MDh9'</t>
         </is>
       </c>
     </row>
@@ -1760,25 +1780,24 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5 Hour Energy is actually a brand of nicotine. They just put it in a different product.</t>
+          <t>5 Hour Energy is a stimulant, not a relaxant. Nicotine is a relaxant. 
+People who need a stimulant to get through their day probably don't want to be relaxed.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5 Hour Energy is actually a mixture of caffeine and sugar.  
-One of the other ingredients is a lot of vitamins, and I'm not sure about the rest.
-The main ingredient in Marlboro Lights is tobacco.  
-So the reason is that nicotine is an addictive substance</t>
+          <t>1. Nicotine is a drug that is addictive. 2. Nicotine is a drug that kills. 3. Nicotine is a drug that is a health hazard. 4. Nicotine is a drug that increases the risk of cancer.  
+5. Nicotine is a drug that causes birth defects when pregnant.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>{'rand1': 36874, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 84106}</t>
+          <t>{'rand1': 19291, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 4983}</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDM2ODc0LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDg0MTA2fQ=='</t>
+          <t>b'eydyYW5kMSc6IDE5MjkxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDQ5ODN9'</t>
         </is>
       </c>
     </row>
@@ -1793,23 +1812,26 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">80's music was heavily influenced by disco, and disco was heavily influenced by 60's music. So it was a lot of the changes from the 60's that made 80's music what it was. </t>
+          <t>80's music was a result of 2 major phenomena:
+1) The developement of synthesizers and electronic instruments.
+2) The developement of the music video.
+The synthesizers opened the door for a new kind of sound.  And the music video opened the door for a new kind of visual appeal.  Together they formed a new kind of musical experience.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>80s music was very influential and revolutionary. Many of the techniques and sounds used in 80s music became the standard for a long time.
-You can hear this in a lot of the music from the 90s. It's not that the music from the 90s was bad, it's that it was a lot more of the same. 80s music was a lot more</t>
+          <t>80s music was heavily influenced by the synthesizer. The synthesizer is an electronic instrument that can produce a wide range of sounds, including the "vintage" sounds that are so prevalent in 80s music. 
+The 80s were a time of innovation in the music industry, and the synthesizer was a brand new, cutting-edge tool for musicians. The synth</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>{'rand1': 1007, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 30109}</t>
+          <t>{'rand1': 26897, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 69619}</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDEwMDcsICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDMwMTA5fQ=='</t>
+          <t>b'eydyYW5kMSc6IDI2ODk3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2OTYxOX0='</t>
         </is>
       </c>
     </row>
@@ -1824,25 +1846,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1. Muscles don't work like that.  Eye muscles are actually a lot more complex than most muscles.  It's not like you can just do some squats and then use your eyes like you're used to.  It's more like you have to relearn how to walk after being paralyzed.
-2. Your eyes are fine.  The problem is the brain</t>
+          <t>1. You can't change the shape of your eye. You can only change how long your eyelids are (the fold in the middle of your eye).
+2. Eye muscles are so small that you can't move them enough to change your vision.
+3. The only way to change your vision is by changing the shape of your eye. That's why you need to wear</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1: It's not a muscle. Your eyes are made up of a combination of muscles and bones.
-2: Your eyes do not work by the same principle as muscles.
-3: Your eye muscles are not the problem. The problem is that your eye's focus is not properly aligned with your brain, and that is not something that can be fixed by exercising.</t>
+          <t>1.   Too often people who have bad eyesight are told it's genetic and there's nothing they can do about it. This is not true.
+2.  There is no exercises that will improve eyesight.
+3.  There are exercises that can improve your eye muscles. But these exercises don't make your eyesight better.
+4.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>{'rand1': 47764, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 71730}</t>
+          <t>{'rand1': 33051, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 70656}</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQ3NzY0LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDcxNzMwfQ=='</t>
+          <t>b'eydyYW5kMSc6IDMzMDUxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDcwNjU2fQ=='</t>
         </is>
       </c>
     </row>
@@ -1857,27 +1881,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1) It's hard to make it worth your time to deal with a bunch of people who had to take their cars to the dealer to get repairs done, and know that they're going to have to take their cars back to the dealer for repairs. 
-2) It's hard to make it worth your time to deal with a bunch of people who wanted the dealer's "special" service, and know that they're going to have to</t>
+          <t>1. they can, but they don't. the dealerships make a lot of money from the sale of the car, and the manufacturers have a lot of control over the dealerships.
+2. the manufacturers have to pay fees to the dealerships.
+3. the dealerships are a good way to get people to come in and look at the cars, and figure out the dealership
+4. a lot of people like</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1) They don't have the infrastructure to sell directly to consumers. They would need to build showrooms, service centers, etc.
-2) They don't have the marketing ability to compete with the dealerships.
-3) They don't have the ability to negotiate with the dealerships. 
-4) They don't have the ability to dictate pricing.
-5) They don't have the</t>
+          <t xml:space="preserve">
+[LINK]-direct-sales.html
+It's a pretty simple answer.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>{'rand1': 17404, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 98142}</t>
+          <t>{'rand1': 12605, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 21411}</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDE3NDA0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5ODE0Mn0='</t>
+          <t>b'eydyYW5kMSc6IDEyNjA1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDIxNDExfQ=='</t>
         </is>
       </c>
     </row>
@@ -1892,25 +1916,26 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1. Beer has a much more complex production process than soda.
-2. Beer is owned or produced by a relatively small number of companies, whereas soda is made by a large number of different companies.</t>
+          <t>1) Budweiser and Miller are the same company, and the fact that they have different-tasting beers is to differentiate their products.
+2) They have the marketing power to offer their competitors' products.
+3) Pepsi and Coke are the same company too!</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Coke and Pepsi dominate the soft drink market, so it's not cost effective for them to compete on pricing. 
-Beer is a much smaller market, so the breweries can afford to fight over smaller margins.</t>
+The difference is that for beer, there are a lot of distinct flavor profiles that are not replicated by other beers, so you can't just substitute one for the other.  With soda, there is a lot of flavor overlap, so you can just substitute one for the other. 
+This is the same reason why it is not common</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>{'rand1': 88366, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 93925}</t>
+          <t>{'rand1': 96566, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 64812}</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDg4MzY2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDkzOTI1fQ=='</t>
+          <t>b'eydyYW5kMSc6IDk2NTY2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDY0ODEyfQ=='</t>
         </is>
       </c>
     </row>
@@ -1925,24 +1950,28 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2 reasons.
-1. 100% of the time when someone buys a sofa, they do not buy a matching loveseat, so there is no reason for them to have the ability to move the loveseat.
-2. 100% of the time when someone buys a sofa, they do not have a two-story house, so there is no reason for them to have the ability to move the sofa upstairs.</t>
+          <t>1) The object is very large and very heavy.
+2) The object is very large and very heavy and you are having trouble lifting it.
+3) The object is very large and very heavy and you are having trouble lifting it and you need to move it.
+4) You're a bit of a slacker and you need to get off your ass and do some work.
+5) You're a bit of a slacker and you really need to get</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The solution is to take the sofa apart.  The problem is that there are many sofas that can't be taken apart, so the problem persists. </t>
+          <t xml:space="preserve">
+&amp;gt; Why is there no solution for the Moving Sofa Problem?
+It's not a problem, it's a paradox.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>{'rand1': 57084, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 41823}</t>
+          <t>{'rand1': 90388, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 88039}</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDU3MDg0LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDQxODIzfQ=='</t>
+          <t>b'eydyYW5kMSc6IDkwMzg4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDg4MDM5fQ=='</t>
         </is>
       </c>
     </row>
@@ -1957,28 +1986,24 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">47% of people make less than $30,000 per year. 26% make less than $20,000. 11% make less than $10,000. 23% of those who file taxes make no money at all. 
-[LINK]-2011-tax-data/
-</t>
+          <t>47% pay no federal income tax.  I'm not sure if this is correct.  But I remember reading that 47% of Americans pay no federal tax.  I'm not sure where this number comes from.  I'm trying to fact check it.  I'll update this with more information.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>47% of people don't pay federal income tax because they don't have any federal income. 
-People who are retired receive social security and medicare, which are both federally funded programs. 
-People who work for the government don't pay federal income tax. 
-People who are unemployed don't pay federal income tax. 
-People who have low income and are not a part of</t>
+          <t xml:space="preserve">1) The earned income credit.  This is a refundable tax credit for low income workers.  You pay no tax, but still receive a federal tax refund.
+2) The child tax credit.  This is a tax credit for families with children.  You pay no tax, but still receive a federal tax refund.
+3) The EITC.  This is a refundable tax credit for low and moderate income workers. </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>{'rand1': 58999, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 35790}</t>
+          <t>{'rand1': 66167, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 10141}</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDU4OTk5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDM1NzkwfQ=='</t>
+          <t>b'eydyYW5kMSc6IDY2MTY3LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDEwMTQxfQ=='</t>
         </is>
       </c>
     </row>
@@ -1993,25 +2018,28 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> On Reddit, a swarm of bots are known as a "hive".  It's a fairly common problem but usually not as bad as what happened in this instance.  This was a well organized effort to create a massive hive that was able to take down a large subreddit.  As a result the moderators of r/thebutton were forced to close it down.
-tl;dr: Swarm of bots overwhelm a sub</t>
+          <t>1. It was a joke. 
+2. The army of zombie bots was not effective. 
+3. The army of zombie bots was a joke. 
+4. The army of zombie bots was a joke. 
+5. The army of zombie bots was a joke. 
+6. The army of zombie bots was a joke. 
+7. The army</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>50% of the button presses were from legitimate users, the others were from bots. 50% of the bots were from legitimate users who were tricked into pressing the button. 
-It was a huge mess.
-Edit: 50% of the bots were from the mods themselves.</t>
+          <t xml:space="preserve">2 things, 1: the moderators are really good at spotting when people are using bots to upvote. 2: a lot of people in r/thebutton hated the whole thing. </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>{'rand1': 63537, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 32171}</t>
+          <t>{'rand1': 53922, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 22552}</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDYzNTM3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzMjE3MX0='</t>
+          <t>b'eydyYW5kMSc6IDUzOTIyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDIyNTUyfQ=='</t>
         </is>
       </c>
     </row>
@@ -2026,27 +2054,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I'm no expert but I've read a bit about this.
-Basically, when you blow air into your nose, the air pressure inside your head drops.  Then when you close your mouth, the pressure outside your head increases.  This pressure difference causes your ears to pop.
-</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
           <t xml:space="preserve">
 [LINK]
-Basically, the Eustachian tubes are a pathway that connects your middle ear to your throat. When you're young, this pathway is very open, but as you age, the Eustachian tubes get narrower. This is why adults have trouble popping their ears, and why children can do it so easily.
-When you blow air through your nose, the</t>
+I've been told that it's actually the air rushing into the nasal cavity. </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1. The air molecules are moving so fast that they create an explosion in the middle of your ear.
+2. Your middle ear is a cavity and the explosion created by the air molecules is so powerful that it creates a pressure wave that makes your eardrum vibrate.
+3. Your eardrum vibrates and converts the air molecules to sound waves.
+4. The sound waves are amplified</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>{'rand1': 2773, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 13871}</t>
+          <t>{'rand1': 37344, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 14603}</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDI3NzMsICdkb19zd2FwJzogVHJ1ZSwgJ2Fuc3dlcjEnOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogMTM4NzF9'</t>
+          <t>b'eydyYW5kMSc6IDM3MzQ0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxNDYwM30='</t>
         </is>
       </c>
     </row>
@@ -2061,25 +2089,27 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Clapping is a very easy way to signal that you're in agreement with something.  It's a good way to signal that you're happy about something, in a way that doesn't require much effort.
-2. It's also very easy to signal that something is wrong.  If you're in a situation where there's a problem, just clap your hands.  It's a very easy way to get attention.
-</t>
+          <t>1) It's a way of expressing the urge to applaud.  When you want to applaud you close your hands and clap them together, and when you're finished you open your hands again.  It's a way of saying "I'm done". 
+2) It's a way of showing that you're excited.  When you're excited you jump up and down, and when you're done you sit</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-[This]([LINK]) is a great video on the evolution of clapping.</t>
+          <t>4000 years ago, the Egyptians used to clap their hands and stamp their feet when happy or approving. 
+The noise they made was said to be a reference to the sound of their hearts. 
+It spread to the rest of the world. 
+So when you clap, you're clapping to your heart. 
+The actual sound of the clap is a reference to the heartbeat.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>{'rand1': 29918, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 27699}</t>
+          <t>{'rand1': 74470, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 63943}</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDI5OTE4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDI3Njk5fQ=='</t>
+          <t>b'eydyYW5kMSc6IDc0NDcwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDYzOTQzfQ=='</t>
         </is>
       </c>
     </row>
@@ -2094,31 +2124,26 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1. You're hiding and you've been in that position for a while and you're getting antsy 
-2. You're trying to run away but you're not sure where you're going and you're getting antsy 
-3. You're running away and you're getting antsy 
-4. You're hiding and you're getting antsy 
-I'm</t>
+          <t>1. You're in a new environment
+2. You're moving around a lot
+3. You're making noise</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1. You're not used to using your body to hide. 
-2. You're not used to using your body to find. 
-3. You're not used to using your body to run. 
-4. You're not used to using your body to get into places. 
-5. You're not used to using your body to get out of places. 
-6. You'</t>
+          <t>1) You're hiding.
+2) You're not hiding.
+3) You're peeing.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>{'rand1': 46551, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 1672}</t>
+          <t>{'rand1': 6469, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 8334}</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQ2NTUxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDE2NzJ9'</t>
+          <t>b'eydyYW5kMSc6IDY0NjksICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDgzMzR9'</t>
         </is>
       </c>
     </row>
@@ -2133,24 +2158,26 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1. the nectar from different flowers is different in terms of its sugar content, pH, and other factors that affect the taste and fermentation process of the honey.
-2. the bees don't taste it while they're collecting it.  they just collect it and then bring it back to the hive.
-3. the honeybees store their honey in cells that are made of wax.  the cells are formed</t>
+          <t xml:space="preserve">
+It's actually the nectar from the flower that turns into the honey.  The nectar has the flavor of the flower.  So, yes, different flowers have different flavors.  
+If you're interested, [this article]([LINK]) goes into some detail about how the flavor of honey changes as it ages or when it's mixed with other honeys.  </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It's not the flower, it's the nectar.  Honeybees are nectar-gatherers.  They will gather nectar from a variety of flowers, and that variety of nectar is what the bees bring back to the hive.</t>
+          <t>1) flowers produce nectar. Honey is made by bees that collect nectar and store it in their hive.
+2) honey is made by mixing nectar with enzymes that help break down the sugars in the nectar. The enzymes come from the bees saliva.
+3) the honey is stored in cells that are coated with a waxy substance called honeycomb. The h</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>{'rand1': 45444, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 76760}</t>
+          <t>{'rand1': 67519, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 27653}</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQ1NDQ0LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDc2NzYwfQ=='</t>
+          <t>b'eydyYW5kMSc6IDY3NTE5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyNzY1M30='</t>
         </is>
       </c>
     </row>
@@ -2165,25 +2192,26 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1)Your teeth are made of enamel. This is the hardest substance in your body. 2)Your enamel is made of hydroxyl ions. When these ions are damaged, your teeth will feel pain. 3)When you bite into the plastic, it is not the plastic's fault. 4)Your teeth have microscopic cracks, and you don't even</t>
+          <t xml:space="preserve">
+It's because you're biting more than the plastic. Your teeth are actually biting the plastic and your jaw muscles are pulling the plastic in the opposite direction. 
+It's like trying to bite through a very thick rubber band. 
+The same thing happens when you bite through a straw. </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1. I have not seen it happen, but it is possible that the plastic used in the ketchup packets is not made of polystyrene.
-2. The ketchup packets may be made of a material that has a lower surface energy than your tooth enamel.
-3. The ketchup packets may be made of a material that has a lower surface energy than your tooth enamel.
-4.</t>
+          <t xml:space="preserve">
+It's not stinging your teeth, it's your mouth. When a plastic container is heated and it's pressure is released, there's a chemical reaction that occurs in the material of the container. This reaction creates a gas that can stay trapped inside the container. When you open the container, you allow the gas to be released. When it's released, it's a very cold gas that your</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>{'rand1': 37737, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 19449}</t>
+          <t>{'rand1': 46848, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 30962}</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDM3NzM3LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDE5NDQ5fQ=='</t>
+          <t>b'eydyYW5kMSc6IDQ2ODQ4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzMDk2Mn0='</t>
         </is>
       </c>
     </row>
@@ -2198,30 +2226,28 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Power comes in.
-2. Power goes to the laptop charger.
-3. Power goes to the laptop.
-4. Power goes to the battery.
-5. Power goes in to the charger.
-Step 5 is the magic that happens when you're charging. It's called a "charge pump" and it's basically a little motor that spins really fast. </t>
+          <t xml:space="preserve">
+[LINK]-inside-of-a-charger-socket/
+</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1. The AC is converted to DC (or used as DC straight from the wall)
-2. The DC is converted to a lower voltage (~5V)
-3. The lower voltage is boosted up to whatever the laptop requires (usually 19.2V)
-4. Finally, the laptop takes the 19.2V and converts it to the correct voltage for use</t>
+          <t>1) The power supply adapter plugs in to the laptop.
+2) The power supply adapter plugs into the wall.
+3) The power supply converts the 120V AC from the wall into 5V DC.
+4) The DC goes to the laptop.
+Roughly.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>{'rand1': 43664, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 47708}</t>
+          <t>{'rand1': 7506, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 2782}</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQzNjY0LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDQ3NzA4fQ=='</t>
+          <t>b'eydyYW5kMSc6IDc1MDYsICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDI3ODJ9'</t>
         </is>
       </c>
     </row>
@@ -2236,28 +2262,26 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1) People do tend to find older people attractive, it's a stereotype that just about every culture has. 
-2) Your brain is a lot more mature when you are elderly, meaning that you have more control over your emotions. 
-3) Older people have a lot more wealth, experience and knowledge. 
-4) Older people are more likely to have a lot of</t>
+          <t>1. It's all about the energy you have. Older women have more energy because of their youthfulness (experience, confidence, etc)
+2. Older women are more mature, so they have more common sense.
+3. Older women are more likely to have the same interests, as they are more likely to have similar outlooks on life.
+4. Old</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1. You're young now.
-2. When you're older, you'll be more mature and less shallow.
-3. Also, you'll have a lot more in common with older people.
-It might not be accurate, but it's a reasonable explanation.</t>
+          <t xml:space="preserve">1) You're not attracted to old women now because you're young.
+2) You will be attracted to old women when you're old because you're attracted to older women now. </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>{'rand1': 14246, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 33107}</t>
+          <t>{'rand1': 93811, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 78329}</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDE0MjQ2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDMzMTA3fQ=='</t>
+          <t>b'eydyYW5kMSc6IDkzODExLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDc4MzI5fQ=='</t>
         </is>
       </c>
     </row>
@@ -2272,27 +2296,30 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">1) They are not black boxes.  They are meant to be black boxes.  They are designed to withstand the crash.  They are not designed to be hacked or broken.
-2) The information is continuously transmitted wirelessly.  However it's not always a good idea to put that information out in the open for the world to see.
+          <t>1. Cost.
+2. Compatibility.
+3. Legal liability.
+Imagine a plane that crashes, kills all 300 people on board, and the blackbox is not found.  The company that made the plane would be liable for all the deaths, and would have to pay a huge sum of money.  This is</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1) The information is sent to the ground. 
+2) The information is sent to the ground via a satellite.
+3) The information is sent to the ground via fiber optic cable.
+4) The information is sent to the ground via a modem.
+5) The information is sent to the ground via a cell phone.
 </t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1) Because the black boxes are the only actual record of what happened, not the data stream.
-2) Because you need to know what happened, not that a single flight was OK. 
-3) Because everyone knows that the black boxes are the only actual record of what happened, not the data stream.
-Source: I'm a pilot</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>{'rand1': 48728, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 7044}</t>
+          <t>{'rand1': 54468, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 93833}</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQ4NzI4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDcwNDR9'</t>
+          <t>b'eydyYW5kMSc6IDU0NDY4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDkzODMzfQ=='</t>
         </is>
       </c>
     </row>
@@ -2307,24 +2334,28 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1. Alligators have a single curved tooth on each side of their jaw. Crocodiles have 4-6 teeth on each side of their jaw.
-2. Alligators have a U-shaped snout. Crocodiles have a V-shaped snout.
-3. Alligators have a concave back and a long tail. Crocodiles have a convex back and</t>
+          <t>1. Alligators have a much more rounded snout and are generally longer. 
+2. Crocs are much more aggressive.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1) Alligators have a wider snout. 2) Crocodiles have longer tails. 3) Alligators have a better sense of smell. 4) Crocodiles are more aggressive. 5) Alligators are more carnivorous. 6) Crocodiles are more aquatic. 7) They have a different number of vertebrae.  8) They</t>
+          <t>1. Alligators have a wider range of vision than crocodiles. 
+2. Alligators have a wider mouth and can open it wider. 
+3. Alligators are more aggressive and less selective. 
+4. Alligators are longer and more streamlined. 
+5. Alligators are more aquatic. 
+6. Alligators have</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>{'rand1': 43852, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 42369}</t>
+          <t>{'rand1': 16887, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 35428}</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQzODUyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0MjM2OX0='</t>
+          <t>b'eydyYW5kMSc6IDE2ODg3LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDM1NDI4fQ=='</t>
         </is>
       </c>
     </row>
@@ -2339,23 +2370,23 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">8-track tapes are a thing of the past, and cassette tapes are very much so. The reason is that vinyl records are the highest quality sound reproduction for a physical medium. When you record a song into a cassette tape, you're using the tape's magnetic properties to store the music, which is not a very stable medium. The same is true with </t>
+          <t xml:space="preserve">1. Vinyl is a superior sound quality format. 8-tracks and cassettes are inferior to vinyl. 
+2. Vinyl has a cultural significance that other formats do not. </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8-tracks were never popular. Cassettes were. Cassettes were, at the time, cheap, and you could fit a lot of music on one. They could be played on car stereos and portable players. They were also easy to make mix tapes of. It was a great format for a while.
-Vinyl has never gone away. It is still popular, and for good</t>
+          <t>8-tracks are not making a resurgence because the music industry does not want to sell 8-tracks.  They are a niche market that most people do not care for.  In contrast, people who listen to vinyl are willing to pay more for it.  This is why it is resurging.  People who do not listen to vinyl are not interested.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>{'rand1': 83243, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 78346}</t>
+          <t>{'rand1': 98326, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 88497}</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDgzMjQzLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3ODM0Nn0='</t>
+          <t>b'eydyYW5kMSc6IDk4MzI2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDg4NDk3fQ=='</t>
         </is>
       </c>
     </row>
@@ -2370,27 +2401,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. You have a lot of bacteria on your skin and breathing in your air. 
-2. You have a lot of bacteria in your mouth and breathing in your air. 
-3. You have a lot of bacteria on your hands and breathing in your air. 
-4. You have a lot of bacteria in the air, and breathing it in. 
-</t>
+          <t xml:space="preserve">1) The other person's bed is a different temperature than your own. You're warmer than the bed, and your body is trying to cool itself.
+2) You're probably breathing through your mouth instead of your nose. </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1. The other person's nasal passageways are generally larger than yours, which means that they are more likely to pick up the stuff that causes stuffiness.
-2. The other person's nasal passageways are generally smaller than yours, which means that they are more likely to be blocked by the stuff that causes stuffiness.</t>
+          <t>1. You are sleeping in a place where you are not used to the air quality. 
+2. The air quality is poorer than you are used to. 
+3. Your body is trying to defend itself from what it thinks is an infection. 
+4. Your body is trying to defend itself from what it thinks is an infection. 
+5. Your body is trying to defend itself from what</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>{'rand1': 34401, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 29455}</t>
+          <t>{'rand1': 53084, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 53966}</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDM0NDAxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDI5NDU1fQ=='</t>
+          <t>b'eydyYW5kMSc6IDUzMDg0LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDUzOTY2fQ=='</t>
         </is>
       </c>
     </row>
@@ -2405,26 +2436,25 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2.4 Ghz is a common number, but it's not the same as saying, "That machine has a 2.4 Ghz processor." 2.4 Ghz is the clock speed, but the actual processor is made up of more transistors, which are the actual switches that are on or off, to represent the 1s and 0s. 
-So, you could have an 8-core</t>
+          <t xml:space="preserve">2.4ghz is a speed at which the CPU can do 2.4 billion operations per second.
+Higher speed CPUs still have more operations per second but their clock speed is higher so they can do more per second. 
+A high clock speed is like a fast car, a low clock speed is like a slow car. </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.4 GHz is the same speed.  
-What is different is what the 2.4 GHz can do with that speed.
-Let's say CPU A has 300MB of cache and CPU B has 100MB of cache.
-CPU A can have a 2.4 GHz clock and still have 300MB of cache to use while CPU B has to use </t>
+          <t>2.4 GHz is the clock speed of the CPU, nothing else.  If you have a 2.4 Ghz CPU but it has a lower clock speed, it's going to be slower.  If you have a 2.4 Ghz CPU but it has a higher clock speed, it's going to be faster.
+It's all about the clock speed.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>{'rand1': 86335, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 58891}</t>
+          <t>{'rand1': 46148, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 91456}</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDg2MzM1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDU4ODkxfQ=='</t>
+          <t>b'eydyYW5kMSc6IDQ2MTQ4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDkxNDU2fQ=='</t>
         </is>
       </c>
     </row>
@@ -2439,26 +2469,25 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">1) Yes. 
-2) They are called grants. 
-3) The government has a lot of money. 
-4) The government gives grants to people who do things that the government wants to happen. 
-5) A government agency called the NSF (National Science Foundation) is one of the main places that gives grants. </t>
+          <t>19 year old grad student here. I was paid (as an undergraduate) to work on my research project, and I also got a stipend. 
+As a graduate student I've been paid to work on my research, and I also get a stipend. 
+As a PhD student I'll probably be paid to work on my research, and I'll probably also get a stipend</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They do, but you have to work at a university for the rest of your life. </t>
+          <t xml:space="preserve">
+[LINK]-university-students-get-paid-for-breakthroughs-discoveries-in-science-archaeology-etc</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>{'rand1': 63251, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 52833}</t>
+          <t>{'rand1': 5425, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 51201}</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDYzMjUxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDUyODMzfQ=='</t>
+          <t>b'eydyYW5kMSc6IDU0MjUsICdkb19zd2FwJzogVHJ1ZSwgJ2Fuc3dlcjEnOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ3JhbmQyJzogNTEyMDF9'</t>
         </is>
       </c>
     </row>
@@ -2473,31 +2502,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1) An excuse to'retake' the rest of Ukraine.
-2) A warm water port.
-3) A port with a land bridge connection to the rest of Russia.</t>
+          <t>1. They don't have to deal with Ukraine's political unrest.
+2. They get to control the Black Sea and the ports on it.
+3. They get to control the natural gas pipelines that go through Ukraine.
+4. They get to make the Ukrainian government a puppet government.
+5. They get to show the rest of the world that they are a real power player.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-* An excuse to take over more of Ukraine.
-* An excuse to start killing ethnic Russians in Ukraine.
-* An excuse to start killing ethnic Ukrainians in Russia.
-* An excuse to start killing ethnic Tartars in the Crimea.
-* An excuse to start killing ethnic Jews in the Crimea.
-* An excuse to start killing ethnic Gypsies in the Crimea.
-* An excuse to</t>
+          <t>1) Crimea has a large Russian speaking population
+2) Crimea has a large Black Sea naval base
+3) Crimea has a large amount of natural resources
+4) Crimea has a large tourism industry that would benefit from Russian tourists</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>{'rand1': 87446, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 29410}</t>
+          <t>{'rand1': 81220, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 72946}</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDg3NDQ2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDI5NDEwfQ=='</t>
+          <t>b'eydyYW5kMSc6IDgxMjIwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDcyOTQ2fQ=='</t>
         </is>
       </c>
     </row>
@@ -2512,27 +2539,30 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1. The Southern states seceded from the Union and formed their own country.
-2. The Republicans at the time, called themselves "The Union" and were fighting to keep the South from seceding.
-3. The South was reliant on slavery to keep their economy up and running, so they made sure that the Union would not abolish slavery.
-4. The Union won the war.
-5. The South</t>
+          <t>1) They began to become the party of the wealthy elite, and as such, the poor and minorities were left out.
+2) They became the party of the religious, and as such, the non-religious and minorities were left out.
+3) They became the party of the "white" man, and as such, the non-white man was left out.
+It's not a new thing</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">1) The Civil Rights Act of 1964.  This law prohibited discrimination on the basis of race, color, religion, sex or national origin.  The Republicans did not like this.  It also created the Equal Employment Opportunity Commission.  So Republicans opposed the law.  (Not all Republicans, but enough to make a difference.)
-2) The Voting Rights Act of </t>
+          <t>1) Republican party was not abolishing slavery.
+2) Republican Party was not against abolition of slavery, they were against the abolition of slavery.
+3) Their position was that slavery was a state issue and should be left to the states.
+4) The Republican Party was formed with the support of abolitionists.
+5) The Republican Party was the party of Lincoln.
+6)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>{'rand1': 76930, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 87622}</t>
+          <t>{'rand1': 223, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 74792}</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDc2OTMwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDg3NjIyfQ=='</t>
+          <t>b'eydyYW5kMSc6IDIyMywgJ2RvX3N3YXAnOiBUcnVlLCAnYW5zd2VyMSc6ICc3Qi1jaGF0X2NwLTI1MDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAncmFuZDInOiA3NDc5Mn0='</t>
         </is>
       </c>
     </row>
@@ -2547,26 +2577,23 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-It's the same thing that happens when you go to sleep. You start thinking about all the things you need to do. Then, you fall asleep and it's gone.
-It's just the way our brains work.</t>
+          <t xml:space="preserve">1) You're tired and don't have the energy to DO anything about it. 2) You're thinking about your dreams which are more interesting than waking life. 3) You're just not thinking about it. </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1. During the day you have so much going on that you can't even think about what you want to do. You are so focused on what you are doing that you don't have time to think about it.
-2. When you are sleeping your mind is free to wander and think about things.
-3. The first thing</t>
+          <t>1) Your body produces more of a chemical called Cortisol while you sleep. Cortisol is what makes you feel tired, and also makes you do things like eat, move, and think. 
+2) When you wake up, your body naturally produces less Cortisol, and you no longer feel tired. This is the reason why you</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>{'rand1': 56851, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 15276}</t>
+          <t>{'rand1': 94799, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 33974}</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDU2ODUxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxNTI3Nn0='</t>
+          <t>b'eydyYW5kMSc6IDk0Nzk5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDMzOTc0fQ=='</t>
         </is>
       </c>
     </row>
@@ -2581,28 +2608,24 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1. Your throat is swollen because you have a cold or something.
-2. The liquid is too hot, too cold or too viscous.</t>
+          <t>2 things can cause this:
+1. You are choking on something.
+2. You are having an allergic reaction to something in the drink.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1. You swallow too fast
-2. You swallow too much
-3. You swallow the wrong way
-4. You have throat cancer
-5. You have a deviated septum
-6. You're a singer who drinks a lot of water. I was a singer once and I drank 2-3 bottles of water a day. I had</t>
+          <t xml:space="preserve">1) I have a condition called [GastroEsophageal Reflux Disease]([LINK]). It's when your stomach acid backs up into your esophagus. When you swallow, it may be like you're swallowing acid, and it hurts. </t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>{'rand1': 98474, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 56950}</t>
+          <t>{'rand1': 62406, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 25667}</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDk4NDc0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1Njk1MH0='</t>
+          <t>b'eydyYW5kMSc6IDYyNDA2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyNTY2N30='</t>
         </is>
       </c>
     </row>
@@ -2617,27 +2640,27 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1. You hear a sound
-2. You turn around to see what was making the noise
-3. You realise you were mistaken and there was no noise
-4. You feel embarrassed and your brain decides to let you know that you've been tricked</t>
+          <t>1) You hear a noise.
+2) You turn around and find out where the noise came from.
+3) You are in a place where you don't expect to hear a noise, so you interpret it as a threat.
+It's not a sense, it's a reaction based on your past experiences.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
           <t xml:space="preserve">
-[LINK]-546-1663-3709-1001.html
-The sense is called [parietal sense]([LINK]).  It is a sense that allows you to sense things near your body.  It is different than the other senses because it is not a passive sense.  The brain actively processes the information to make you aware of it.  It is mostly</t>
+[This]([LINK]) is a good article about it.
+Basically your body is a big web of nerves and muscles. When someone taps you on the shoulder, the nerves and muscles in your shoulder vibrate and send a signal to your brain.  This is what you feel.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>{'rand1': 76978, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 86842}</t>
+          <t>{'rand1': 16876, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 89049}</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDc2OTc4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDg2ODQyfQ=='</t>
+          <t>b'eydyYW5kMSc6IDE2ODc2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDg5MDQ5fQ=='</t>
         </is>
       </c>
     </row>
@@ -2652,25 +2675,26 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It's not a judgment thing.  It's just that if you're listening to someone and they're speaking in a very different tone than you're used to, it's going to be much more difficult to focus on what they're saying.  So you're not paying attention to what they're saying, you're paying attention to how they're saying it. </t>
+          <t>1. The person who is speaking is more charming than the person who is speaking, but you have a bias towards charming people.
+2. You're attracted to the person's voice because you are attracted to that person.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1. People with accents are more interesting than people who don't have accents.
-2. People with accents are more charismatic than people without accents.
-3. People with accents are more likely to have a sense of humor than people without accents.
-4. People with accents are more likely to be attractive than people without accents.</t>
+          <t>1) You're more likely to listen to someone who speaks like you.
+2) You're more likely to be listened to by someone who speaks like you.
+3) You're more likely to find someone who speaks like you attractive.
+4) You're more likely to be attracted to someone who speaks like you.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>{'rand1': 45358, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 98003}</t>
+          <t>{'rand1': 38314, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 11778}</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQ1MzU4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDk4MDAzfQ=='</t>
+          <t>b'eydyYW5kMSc6IDM4MzE0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxMTc3OH0='</t>
         </is>
       </c>
     </row>
@@ -2685,26 +2709,25 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1. The ISS is in Earth orbit, so it is moving at a lot slower than we are. It is also in a very low orbit, so it is moving very fast.
-2. The paint fleck is traveling at a low speed, and is small. The ISS is slow, but is huge.
-3. The ISS is</t>
+          <t xml:space="preserve">1. We're not going to be exploring space in spaceships. 
+2. We're not going to be going anywhere near the debris. It's going to be inside the station. 
+3. We're not going to be going anywhere near the debris. </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1. Debris is small and we are going to be moving at 1000s of km/h.
-2. We are going to have a shield that is 1000s of km thick.
-3. We are going to have a 1000s of km thick shield that is 1000s of km</t>
+          <t>1) The ISS is a very large target.  The paint fleck is only the size of a paint fleck.  The ISS is huge.
+2) When you are sending a spacecraft with a bunch of solid fuel rocket engines, you can't just throw a bunch of paint flecks at it and hope for the best.  You need</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>{'rand1': 52695, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 22438}</t>
+          <t>{'rand1': 46178, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 68677}</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDUyNjk1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyMjQzOH0='</t>
+          <t>b'eydyYW5kMSc6IDQ2MTc4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2ODY3N30='</t>
         </is>
       </c>
     </row>
@@ -2719,24 +2742,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1. You make a lot of mucus when you eat spicy food. 
-2. You feel the spice going down your throat.
-3. Those spicy food particles are not very big, so they are easily pushed through the mucus, which is not very thick, and into your nasal cavity, where they can make you sneeze.</t>
+          <t>1. Spicy foods trigger a protective reaction.
+2. Your nose often runs because it is a mucous membrane.
+3. You have a mucous membrane in your throat that can also run.
+It's a natural reaction to have a runny nose, but it's also part of the reason why you should always eat spicy foods with a drink.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The spicy food triggers your nose to release mucus.</t>
+          <t>1. It's a reaction to the heat.
+2. It's a reaction to the spiciness.
+3. You're blowing your nose because you're trying to cool down the heat.
+4. You're blowing your nose because you're trying to remove the spiciness.
+It's not specific to spicy food. If you eat something hot, you'll get the same reaction.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>{'rand1': 9127, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 39066}</t>
+          <t>{'rand1': 14571, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 9476}</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDkxMjcsICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDM5MDY2fQ=='</t>
+          <t>b'eydyYW5kMSc6IDE0NTcxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDk0NzZ9'</t>
         </is>
       </c>
     </row>
@@ -2751,29 +2779,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2 things:
-1. You're getting closer to orgasm
-2. Your partner is doing something you like
-The second is the more important thing and is in your control.
-It's the same for both genders.</t>
+          <t>1.  Your body is designed to orgasm during sex. 
+2.  Your body is designed to orgasm during sex. 
+3.  Your body is designed to orgasm during sex. 
+4.  Your body is designed to orgasm during sex. 
+5.  Your body is designed to orgasm during sex. 
+6.  Your body is designed to orgasm during sex. 
+7.  Your body is designed to orgasm during</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1. The brain sends signals to the spinal cord and then to the muscles telling them to contract.
-2. The muscles contract which causes blood to rush in and the pressure builds up.
-3. The pressure builds up too much and the muscles can't hold anymore so they release.
-There's a lot of other things that can affect the brain sending the signals, such as stress, emotions, or even the type of sex you are having.</t>
+          <t>1. There is a nerve pathway that runs from the penis to the brain.  When this pathway is stimulated in the right way, the brain sends a signal to the muscles in the penis to relax, allowing the sperm to be released.  This is why if you have too much sensation in the penis, you might have trouble climaxing.
+2. A woman's vagina is designed to be self cleaning, so when</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>{'rand1': 3262, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 90682}</t>
+          <t>{'rand1': 15331, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 99059}</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDMyNjIsICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDkwNjgyfQ=='</t>
+          <t>b'eydyYW5kMSc6IDE1MzMxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5OTA1OX0='</t>
         </is>
       </c>
     </row>
@@ -2788,23 +2816,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1. they are cultural constructs, not races.
-2. there are many ways to explain why people have different facial structures. [LINK]-of-evolution-of-human-skulls.jpg</t>
+          <t>1. No, there is not an evolutionary purpose.
+2. Yes, there is an evolutionary purpose.
+3. Yes, there is an evolutionary purpose.
+4. No, there is not an evolutionary purpose.
+5. No, there is not an evolutionary purpose.
+6. No, there is not an evolutionary purpose.
+7. No, there is not an evolutionary purpose.
+8. Yes,</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>99.9% of the time, no.  The main purpose of evolution is to help us survive, not to make us look good.  The different features between races are due to mutations and other factors.  If a mutation is beneficial, it will be passed down to future generations.  Some features will be beneficial in specific environments, but not in others.</t>
+          <t>1. Evolutionary psychology is a very controversial field, and not a lot of people take it seriously.
+2. Facial structure is more complex than you think. There are many different traits that determine your face, and they are all interrelated.
+3. Facial structure is also influenced by genetics. Many people have very similar faces, but the differences are based on their genetics.
+4. The idea that race is a bi</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>{'rand1': 71913, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 85502}</t>
+          <t>{'rand1': 15499, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 25325}</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDcxOTEzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDg1NTAyfQ=='</t>
+          <t>b'eydyYW5kMSc6IDE1NDk5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyNTMyNX0='</t>
         </is>
       </c>
     </row>
@@ -2819,27 +2856,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1. The reproductions are not in the public domain.
-2. The reproductions are not the original work.
-If you were to reproduce van Gogh's original painting, that would be a copyright violation. If you were to reproduce a reproduction of the painting, that would be acceptable. The reproduction is not the original work, so you don't have to</t>
+          <t xml:space="preserve">1. It's not a reproduction. 
+2. The copyright on the original image belongs to the person who owns it. 
+3. The copyright on a reproduction of the image is the person who made the reproduction. 
+The copy of the image on your wall is not the original. </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-[LINK]-of-public-domain-art-prices.html
-[LINK]-public-domain-images-for-sale.html
-The first one is a great article about the prices, and the second one is a gallery with a lot of public domain images.</t>
+          <t>1. The reproduction is not the original work.
+2. The reproduction is not exact.
+3. The reproduction is not the same size.
+4. The reproduction is not in the same medium.
+5. The reproduction is not the same as the original.
+Therefore, it is not a copyright infringement.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>{'rand1': 95778, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 14736}</t>
+          <t>{'rand1': 81193, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 76086}</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDk1Nzc4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDE0NzM2fQ=='</t>
+          <t>b'eydyYW5kMSc6IDgxMTkzLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3NjA4Nn0='</t>
         </is>
       </c>
     </row>
@@ -2854,27 +2894,28 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Coaches are supposed to be athletic.  They have to be able to run with the players and be physically fit.  They also have to be able to make plays on the field and they have to be able to get the players to play at their highest level.  They have to be able to get into the mind set of the players.  They have to be able to help them focus and get them to play their best.  They also have to be</t>
+          <t>1) It's not an official rule, and most coaches don't wear suits. 
+2) It's just a football thing. Coaches are expected to dress down. 
+3) It's not a matter of dressing up for the players, but dressing down for the fans. Fans are looking for a coach who's not too dressed up, who's not too formal, who's not too</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-&amp;gt; Why aren't football coaches expected to wear suits like other professional sport coaches?
-Because the NFL is a professional league, and they wear suits.
-The NCAA is not a professional league, and coaches wear sweatshirts.
-The NFL is a professional league, and they wear suits.
-The CFL is not a professional league, and coaches wear sweatsh</t>
+          <t>1. They're not paid nearly as well as other coaches.
+2. They're not expected to have any business acumen.
+3. They're not expected to be as well-spoken as other coaches.
+4. They don't have to do nearly as much media.
+5. They're not expected to be nearly as professional.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>{'rand1': 65986, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 79380}</t>
+          <t>{'rand1': 917, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 7647}</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDY1OTg2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDc5MzgwfQ=='</t>
+          <t>b'eydyYW5kMSc6IDkxNywgJ2RvX3N3YXAnOiBUcnVlLCAnYW5zd2VyMSc6ICc3Qi1jaGF0X2NwLTI1MDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0JfY3AtMjAwMC5hbnN3ZXInLCAncmFuZDInOiA3NjQ3fQ=='</t>
         </is>
       </c>
     </row>
@@ -2889,25 +2930,28 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They don’t.  When you breath in oxygen, the oxygen is bonded to your hemoglobin, and the hemoglobin is in your blood, which is pumped around by your heart.  So as long as your heart is pumping, you’ll get oxygen.
-Trees don’t do that.  They have a different kind of cell that carries their</t>
+          <t>1. They don't stop.
+2. They don't need to.
+3. The respiration rate is far slower than the rate of photosynthesis.
+In a nutshell, it's not like a tree is going to stop photosynthesizing and go to sleep and then wake up and start photosynthesizing again.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1. They don't "turn CO2 into oxygen". They're not a factory.
-2. They don't "hibernating" during winter. They're dormant.
-3. Trees don't produce oxygen. They consume it.</t>
+          <t xml:space="preserve">
+&amp;gt; If trees are technically “hibernating” during winter, how are they continuing to turn our CO2 into oxygen?
+They aren't hibernating, they are dormant. They are not producing leaves, but they are still alive, and are still removing CO2 from the air. 
+Also, it's a myth that trees are the main source of oxygen</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>{'rand1': 15847, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 37321}</t>
+          <t>{'rand1': 76177, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 86625}</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDE1ODQ3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzNzMyMX0='</t>
+          <t>b'eydyYW5kMSc6IDc2MTc3LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDg2NjI1fQ=='</t>
         </is>
       </c>
     </row>
@@ -2922,23 +2966,24 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1. Turkey has long had an interest in denying the genocide, it's a nationalist thing. 2. Turkey has long had an interest in maintaining good relations with the United States, and the US has a long history of looking the other way on genocide. 3. Turkey has a large and powerful lobby in the US, and the US has a long history of looking the other way on genocide.</t>
+          <t>1) Turkey is a secular state. 2) Turkey has a very important relationship with the US 3) Turkey has a long history of having Jews in their country and have a very strong Jewish population today. 4) Turkey is a huge country and does not have a large Armenian population. 5) Turkey is a huge country and does not have a large Turkish population. 6) Turkey has a strong economy and military, which is a</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">1915-1923 is a very sensitive time in Turkish history. The country lost a lot of territory and the Ottoman Empire was abolished. It's a very difficult pill to swallow.
-</t>
+          <t>1. The Armenian people were historically a minority in the Ottoman Empire, and they were often subject to persecution and discrimination.
+2. The Ottoman Empire was not a country in the modern sense, it was a multicultural empire.
+3. The Armenian people were not a single ethnic group. They were a mix of Christians and Muslims, and the majority of the Armenians in the</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>{'rand1': 55175, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 72583}</t>
+          <t>{'rand1': 20595, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 56982}</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDU1MTc1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3MjU4M30='</t>
+          <t>b'eydyYW5kMSc6IDIwNTk1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1Njk4Mn0='</t>
         </is>
       </c>
     </row>
@@ -2953,24 +2998,27 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1. Limos are more expensive.
-2. You're paying for the service of the driver.
-It's the same reason why you can't drink alcohol in an airplane, but you can in a limo.</t>
+          <t>1. You are not allowed to drink in a car. 
+2. Alcohol is the most dangerous drug, so it is illegal to operate any kind of vehicle under the influence. 
+3. A limo is a motor vehicle, so the same rules apply. 
+4. The difference is that a limo is a "passenger" vehicle, so the owner can drink what they want. 
+5. The driver is responsible for the</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The law is that you can drink in a limo if you are being transported from one destination to another in that limo.  You can't drink in a car because you are not being transported anywhere.  The law is about where you are being transported not the mode of transportation.</t>
+          <t>1. Limos are an exception to the normal rules of driving.
+2. Limos are not cars.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>{'rand1': 52111, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 97530}</t>
+          <t>{'rand1': 14127, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 53776}</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDUyMTExLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA5NzUzMH0='</t>
+          <t>b'eydyYW5kMSc6IDE0MTI3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1Mzc3Nn0='</t>
         </is>
       </c>
     </row>
@@ -2985,25 +3033,23 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1. Super glue is a liquid that dries.  If it is a liquid that dries to a solid, it will be a solid.  If it dries to a liquid, it will be a liquid.  So, if you put super glue on the inside of the bottle, it will dry to a solid, which is not really useful.
-2. Super glue is a solid that dries to a liquid.  It is not a liquid</t>
+          <t xml:space="preserve"> Because the superglue is a liquid.  The glue on the inside is a solid.  When you apply the glue to the outside of the bottle, it mixes with the liquid inside and turns into a liquid.  But the glue in the bottle is already a solid.  </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1) There is a bit of air trapped in the bottle.
-2) The glue has a sticky end and a tacky end. The tacky end sticks to you, the sticky end sticks to the glue. The tacky end has to stick to the glue to transfer the tacky end to the glue.
-In other words, the glue is sticking to itself.</t>
+          <t>1. The nozzle is designed to push the glue out of the bottle when you press it. The nozzle is a rubber material that is poured into the bottle, and the manufacturer wants to make sure that the rubber doesn't melt in the heat of the glue.
+2. The glue is designed to stick to the outside of the bottle. The outside is smooth and cool, and the manufacturer wants the gl</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>{'rand1': 15202, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 92234}</t>
+          <t>{'rand1': 12989, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 80940}</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDE1MjAyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDkyMjM0fQ=='</t>
+          <t>b'eydyYW5kMSc6IDEyOTg5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4MDk0MH0='</t>
         </is>
       </c>
     </row>
@@ -3018,32 +3064,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1. The battery is a chemical battery. 
-2. The chemicals inside the battery are broken down. 
-3. The chemicals inside the battery are mixed and reacted. 
-4. The chemicals inside the battery are broken down again. 
-5. The cycle is repeated. 
-6. The battery is alive again. 
-That's the basic science behind it.</t>
+          <t xml:space="preserve">1. you got a short in it and the battery is still working, just shorted out
+2. you got a loose connection in the battery, which shorted out
+The battery is still working, but there is a short in it. 
+The battery is still working, but there is a loose connection in the battery. </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">1) They're not dead, they're just stuck.
-2) You've given them a gentle shake and they've come unstuck.
-3) The one you flipped around was actually the dead battery, and you've just given the other one a little boost of power.
-4) The one you flipped around was actually the dead battery, but the charge just came back.
-</t>
+          <t>1. The battery is in contact with the metal, usually the metal contacts, of the device, and this causes the battery to be charged a little.
+2. The battery is in contact with a conductor, such as the wires, and this causes the battery to be charged a little.
+3. The battery is in contact with the metal contacts, and the battery is in contact with a conductor, and this causes the battery to</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>{'rand1': 84276, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 41673}</t>
+          <t>{'rand1': 90095, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 67681}</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDg0Mjc2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDQxNjczfQ=='</t>
+          <t>b'eydyYW5kMSc6IDkwMDk1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2NzY4MX0='</t>
         </is>
       </c>
     </row>
@@ -3058,24 +3099,31 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1) It's an addictive substance, yes, but it isn't as addictive as other drugs.
-2) It's a legal substance. There are many legal substances that are more dangerous than tobacco, but because they are legal, they are not banned.
-3) Tobacco is a very useful</t>
+          <t xml:space="preserve">
+For starters, it's not "scientifically proven" to cause death.
+There's a lot of evidence to suggest that smoking causes cancer, but there's no way to prove that smoking causes cancer.
+There's a lot of evidence to suggest that smoking is bad for you, but it's not</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. It is not scientifically proven that they cause cancer. 2. They have medicinal uses and are not addictive. 3. There's money involved. </t>
+          <t xml:space="preserve">1) They aren't proven to cause death. They are proven to cause cancer.
+2) Tobacco is not a drug. It's a plant.
+3) Tobacco is legal.
+4) Tobacco is not addictive.
+5) Tobacco is not dangerous.
+6) Tobacco is safe.
+</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>{'rand1': 81930, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 38286}</t>
+          <t>{'rand1': 93809, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 83811}</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDgxOTMwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDM4Mjg2fQ=='</t>
+          <t>b'eydyYW5kMSc6IDkzODA5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4MzgxMX0='</t>
         </is>
       </c>
     </row>
@@ -3090,27 +3138,29 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">1) Kung Fu is not an Asian martial art as it was created by the Chinese. 
-2) Kung Fu is not a Chinese martial art as it was created by the Shaolin Monks. 
-3) There are western martial arts. 
-4) The Japanese have a style called karate. </t>
+          <t>1) The world was a lot smaller in the past.
+2) Western countries only had limited access to Asian countries.
+3) Western countries are a lot bigger than Asian countries.
+4) The Asian countries are closer to each other, so they had more opportunities to interact.
+5) The Asian countries were more interested in martial arts.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1) The history. Western martial arts have only been around for about 250 years.  Asian martial arts have been around for thousands of years.
-2) The terrain.  Modern western countries are mostly flat, but in Asia the terrain is more varied, and this affected the development of martial arts.
-3) The climate.  In Western countries</t>
+          <t>1. It is extremely difficult to create something new, especially a martial art. 
+2. It is far easier to adapt an existing practice to suit your needs than to start from scratch.
+3. The ancient Chinese had a very large population, and thus, a large number of military conscripts. 
+4. The Chinese military was very strong, and</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>{'rand1': 20572, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 57294}</t>
+          <t>{'rand1': 48515, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 70557}</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDIwNTcyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDU3Mjk0fQ=='</t>
+          <t>b'eydyYW5kMSc6IDQ4NTE1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3MDU1N30='</t>
         </is>
       </c>
     </row>
@@ -3125,26 +3175,27 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Because of the nasal cavity. When you're sleeping, your nasal cavity is more open and your voice comes out more nasal. When you wake up, your nasal cavity is more closed and your voice comes out more nasal.
-Also, when you're sleeping, your vocal cords are more relaxed, and when you're awake, they're more tense.</t>
+          <t>1) Your throat is drier when you wake up.
+2) You're probably still a bit sleepy.
+Those two things make your voice sound raspy.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1) Your throat is dry
-2) You're not used to talking or are tired
-3) You're not as relaxed as you are when you're sleeping</t>
+          <t>1) The vocal cords are relaxed, so they can make a higher pitch. 
+2) The other parts of your body that are used to make the sound of your voice (the nasal cavities, sinuses, etc) are not yet fully awake.
+3) The air in your lungs is more humid, so it's easier for your vocal cords to vibrate.
+4) Your brain is still not fully awake</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>{'rand1': 29887, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 54851}</t>
+          <t>{'rand1': 73005, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 58977}</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDI5ODg3LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDU0ODUxfQ=='</t>
+          <t>b'eydyYW5kMSc6IDczMDA1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1ODk3N30='</t>
         </is>
       </c>
     </row>
@@ -3159,25 +3210,24 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t xml:space="preserve"> The short answer is that they do not think in a language.  They think in images, sounds, or smells.  They think in whatever they can perceive.  They do not think in words or language. </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t xml:space="preserve">
-[LINK]-the-brain-works-when-you-can-hear
-I believe that in many cases, there are no thoughts in the deaf person's mind at all.
-But, in other cases, I believe they think in sign language. </t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> It's like asking how a blind person thinks. Maybe they think in a different language than you do. Maybe they don't think in a language at all. Maybe they think in a different way than you do. We can't know. </t>
+[LINK]-language
+</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>{'rand1': 25607, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 25387}</t>
+          <t>{'rand1': 97775, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 63349}</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDI1NjA3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyNTM4N30='</t>
+          <t>b'eydyYW5kMSc6IDk3Nzc1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDYzMzQ5fQ=='</t>
         </is>
       </c>
     </row>
@@ -3192,23 +3242,29 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1. The wood is solid, they are not hollow
-2. The wood is covered in a coating that prevents it from being marred by the ball</t>
+          <t>1. They are not made of glass, they are made of wood, which is much harder than glass.
+2. They are made to withstand the impact of bowling balls.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I was told by a professional bowler that the pin actually has a coating on it that prevents the ball from scratching it. </t>
+          <t xml:space="preserve">
+&amp;gt; Why doesn't the ball leave a scar on the bowling ball?
+&amp;gt; Why don't the bowling balls scratch the alley?
+&amp;gt; Why doesn't the alley wear down?
+&amp;gt; Why don't the pins wear down?
+&amp;gt; Why doesn't the lane wear down?
+&amp;gt; Why doesn't</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>{'rand1': 67359, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 789}</t>
+          <t>{'rand1': 2106, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 87005}</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDY3MzU5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3ODl9'</t>
+          <t>b'eydyYW5kMSc6IDIxMDYsICdkb19zd2FwJzogRmFsc2UsICdhbnN3ZXIxJzogJzdCX2NwLTIwMDAuYW5zd2VyJywgJ2Fuc3dlcjInOiAnN0ItY2hhdF9jcC0yNTAwLmFuc3dlcicsICdyYW5kMic6IDg3MDA1fQ=='</t>
         </is>
       </c>
     </row>
@@ -3223,34 +3279,29 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1. [LINK]-1080p.mp4
-2. [LINK]
-3. [LINK]
-4. [LINK]
-5. [LINK]
-6. [LINK]
-7. [LINK]
-8. [LINK]
-9. [LINK]
-10. [LINK]
-1</t>
+          <t>1. Japan is a very homogeneous country. Meaning that there is a lot of inbreeding. So, sex is not as exciting. 
+2. Japan has a very low birth rate. 
+3. Japan has a very high suicide rate. 
+4. Japan has one of the lowest life expectancies in the world. 
+5. Japan has the highest number of people who are obese. 
+6. Japan</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1) there's a lot of "cultural" reasons for this.
-2) the definition of "sex" is different in japan.
-3) there's a lot of people who still have sex, but the number of people who have sex is decreasing.</t>
+          <t>1) There is a cultural obsession with the idea of "losing one's virginity". It's a big deal.
+2) There are *tons* of people who are just generally repulsed by the idea of sex. There's a lot of psychological stuff that can lead to this, such as past trauma, or a lack of emotional connectivity.
+3) The Japanese government has been actively trying to push a more "</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>{'rand1': 54880, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 66987}</t>
+          <t>{'rand1': 91910, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 41754}</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDU0ODgwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2Njk4N30='</t>
+          <t>b'eydyYW5kMSc6IDkxOTEwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0MTc1NH0='</t>
         </is>
       </c>
     </row>
@@ -3265,24 +3316,28 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1. They are a nicotine delivery system. 2. Oh god no. 3. Nope. 4. Nope, unless you are an idiot. 5. Yes, but it's not 100% safe. 6. Nope. 7. Nope. 8. Nope. 9. Nope. 10. Nope. 11. Nope. 12. Nope.</t>
+          <t>1) They are inhaled, they don't burn.
+2) They are a source of nicotine, but no tar.
+3) They are less addictive than regular cigarettes.
+4) They are less harmful than regular cigarettes.
+5) They are not proven to be less harmful than regular cigarettes.
+6) They are not proven to be less addictive than</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1. They are not a healthier alternative. E-cigs have the same nicotine and tar as cigarettes.
-2. They are a gateway to smoking. Many e-cig users start using them to quit smoking, but then they get hooked on the nicotine.
-3. They are not a safer alternative to smoking. They are arguably more dangerous due to the nicotine content which can make the</t>
+          <t>1. They're not a safe alternative to smoking.  The chemicals in e-cigarettes (nicotine being the main one) are just as bad as the chemicals in regular smokes.  They're just not as bad as the chemicals in regular cigarettes.  
+2. They're not a safe alternative to smoking.  The chemicals in e-cigarettes (nicotine being the main</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>{'rand1': 10847, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 66279}</t>
+          <t>{'rand1': 54786, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 32386}</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDEwODQ3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA2NjI3OX0='</t>
+          <t>b'eydyYW5kMSc6IDU0Nzg2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzMjM4Nn0='</t>
         </is>
       </c>
     </row>
@@ -3297,29 +3352,29 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1. It's not legal for the same reason alcohol is not legal. Both are drugs that can be abused, and both can be addictive. 
-2. There are negative consequences to smoking pot, but not as many as there are to smoking cigarettes. 
-[LINK]-Reasons-Why-the-US-Government-Banned-Marijuana.html</t>
+          <t>1) It was illegal because it was classified as a narcotic, like heroin and cocaine.
+2) There are no negative health consequences to smoking pot.
+3) The problem is that it can make you very lazy.  You can get used to the high and not get anything done.
+4) When it was illegal, it was a good excuse to lock up pot smokers and put them</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. It's easy to get.
-2. It's mind altering.
-3. It's fun.
-4. It's legal in some places.
-5. It's not as bad as others.
+          <t xml:space="preserve">1. It's addictive.
+2. It's unhealthy for your heart, lungs and brain.
+3. You can't be trusted to make decisions while under the influence of marijuana.
+4. It's illegal.
 </t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>{'rand1': 95721, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 56808}</t>
+          <t>{'rand1': 50053, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 88403}</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDk1NzIxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1NjgwOH0='</t>
+          <t>b'eydyYW5kMSc6IDUwMDUzLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA4ODQwM30='</t>
         </is>
       </c>
     </row>
@@ -3334,25 +3389,25 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1%-2% is a lot. 
-I've read that the average age for testosterone to start decreasing is at about 30. 
-[LINK]</t>
+          <t xml:space="preserve">1. It doesn't happen to all men.
+2. The hair does not grow because of the loss of testosterone, but because of the loss of DHT. DHT is a metabolite of testosterone, and it is the DHT that causes hair to grow. Loss of DHT causes hair to fall out.
+</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1% to 2% may not seem like a lot, but over the course of a lifetime, it adds up.
-Hair grows in cycles. The old hair falls out and is replaced by a new hair.  The cycle is around 3-4 months.  It's not until the hair is around 6 months old that the test</t>
+          <t>1% for men sounds like a bit of an exaggeration. I've read that the average decrease in testosterone per year is around 2.5%. 
+[LINK]-testosterone-levels-decrease-with-age</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>{'rand1': 42279, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 7275}</t>
+          <t>{'rand1': 40553, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 5259}</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQyMjc5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3Mjc1fQ=='</t>
+          <t>b'eydyYW5kMSc6IDQwNTUzLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1MjU5fQ=='</t>
         </is>
       </c>
     </row>
@@ -3367,28 +3422,26 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1) Animals have much more efficient digestive systems than humans.
-2) Animals eat much more than humans, so they need more water.
-3) Animals drink from creeks, rivers, lakes, and ponds, which are much safer than drinking water from the ground.
-4) Animals don't collapse in the sun or get heat stroke, so they don't need to drink water to cool down.</t>
+          <t xml:space="preserve">1) Humans don't need to drink water to survive, we just need to drink it to live. 
+2) Humans don't have the ability to purify their water, and it would be a waste of energy to do so. 
+3) Humans don't have a strong enough immune system to survive infections caused by water. 
+That's why we only drink clean water. </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1. Some animals have a very high tolerance for toxins. 
-2. Some animals can digest almost anything. 
-3. Some animals can excrete waste products. 
-Humans evolved over time to be less tolerant of toxins, less capable of digesting anything, and less capable of excreting waste products.</t>
+          <t xml:space="preserve">
+Humans evolved to drink water that was clean enough to drink, but not so clean that it didn't contain enough nutrients.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>{'rand1': 24862, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 48938}</t>
+          <t>{'rand1': 20662, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 76277}</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDI0ODYyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDQ4OTM4fQ=='</t>
+          <t>b'eydyYW5kMSc6IDIwNjYyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDc2Mjc3fQ=='</t>
         </is>
       </c>
     </row>
@@ -3403,30 +3456,23 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. It's a separate code.
-2. It's a separate processor.
-3. It's a separate file.
-It's all separate.
-</t>
+          <t xml:space="preserve"> The sound design is controlled by the operating system.  The OS is not crashing.  
+There are many things that can cause a crash, and the sound hardware is not one of them. </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The answer is that there are two types of audio streams.
-First, there is the stream that your computer is using to play the sound.
-This stream doesn't stop when the program crashes.  It keeps on playing, even if the program doesn't.  This is one of the reasons that you can't easily mute yourself on Skype.
-The second type of audio stream is the stream that the game is using to play the sound.  This one stops when</t>
+          <t>100 Million things crash in a day, and 99.99 Million of them don't affect your audio.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>{'rand1': 72708, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 50249}</t>
+          <t>{'rand1': 17469, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 2637}</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDcyNzA4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDUwMjQ5fQ=='</t>
+          <t>b'eydyYW5kMSc6IDE3NDY5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAyNjM3fQ=='</t>
         </is>
       </c>
     </row>
@@ -3441,24 +3487,23 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-I think you're thinking of "Chemical Engineering", which is the study of substances and how they behave under different conditions. </t>
+          <t xml:space="preserve">300 years ago, guns were made from wood, metal, and gunpowder.  We still call them guns today.  Guns are made from chemicals, so chemical weapons are weapons made from chemicals. 
+</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.  Chemical weapons are weapons.  They are not just chemicals.  They are a dangerous substance designed to hurt people.  (Think of all the chemicals in your house that you're not supposed to mix together.)
-2.  Weapons are weapons.  They are not just things.  They are things designed to hurt people.  (Think of all the things you</t>
+          <t xml:space="preserve"> There are weapons that don't use chemicals like poison darts or in the case of the Germans during WW1 - gas grenades.  The term is used because it was originally used to describe weapons that used chemicals as a warfare and it has stuck. </t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>{'rand1': 17572, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 51296}</t>
+          <t>{'rand1': 36585, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 14480}</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDE3NTcyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1MTI5Nn0='</t>
+          <t>b'eydyYW5kMSc6IDM2NTg1LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxNDQ4MH0='</t>
         </is>
       </c>
     </row>
@@ -3473,22 +3518,26 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2000 calories is not enough to sustain your body for a whole day.  It is enough to sustain your body for a few hours.  The rest of the day you will lose weight.</t>
+          <t xml:space="preserve">2000 calories is the estimate for a man, a woman's figure is 1800. 
+A woman's body is also more efficient at burning calories, so she needs less than a man to sustain herself. </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2000 calories is a lot of food.  You will get full, and it would be hard to eat more than that at one sitting.  But, you don't get full, you get tired.  Your body is using the calories, but not storing them, and it needs more.  So, even though you</t>
+          <t xml:space="preserve">1. You typically have a more varied diet than just 2000 calories of calories.
+2. You burn calories even when you are not actively doing anything. 
+3. The hunger is usually a sign of a loss of water, not a lack of calories. 
+</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>{'rand1': 48598, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 7052}</t>
+          <t>{'rand1': 90451, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 36117}</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQ4NTk4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDcwNTJ9'</t>
+          <t>b'eydyYW5kMSc6IDkwNDUxLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzNjExN30='</t>
         </is>
       </c>
     </row>
@@ -3503,23 +3552,24 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1. Fluoride is not really an additive. It is a naturally occurring compound that is found in water.
-2. No, the fluoride does not sink to the bottom. It is essentially evenly distributed throughout the water.</t>
+          <t>1. Fluoride is not an additive. 2. Fluoride is not a chemical. 3. Fluoride is not added. 4. Fluoride is not a chemical. 5. Fluoride is not added. 6. Fluoride is not a chemical. 7. Fluoride is not added.</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1. Water is not allowed to settle for an extended period of time. 2. Water is not treated with additives. 3. Water is not fluoridated. 4. Water is not cleaned. 5. Fluoride is not added to water. 6. Water is not treated with cleaning additives. 7. Fluor</t>
+          <t>1) They sit at the bottom.
+2) They're in the water too.
+3) The water is constantly moving, so any stuff that settles in the bottom of the tank gets mixed with the rest of the water.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>{'rand1': 92203, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 57539}</t>
+          <t>{'rand1': 82919, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 32476}</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDkyMjAzLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDU3NTM5fQ=='</t>
+          <t>b'eydyYW5kMSc6IDgyOTE5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzMjQ3Nn0='</t>
         </is>
       </c>
     </row>
@@ -3534,26 +3584,25 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t>100% of water expands when it turns to ice. 
+The water in your glass expands to fill its container. 
+So does the water in the ice. 
+So the ice takes up less volume than the water.</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>4. If the fluid is a liquid, it will shrink, because the molecules move further away from each other. 
-5. If the fluid is a gas, it will expand, because the molecules move closer together. 
-6. If the fluid is a solid, it will expand, because the molecules are squished together. 
-7. If the fluid is a liquid, it will expand, because the mole</t>
+          <t xml:space="preserve"> When ice is formed from water, the molecules are pushed closer together, raising the density.  The density of ice is 0.92g/cm^3, whereas the density of water is 1.00g/cm^3.  So, ice takes up more volume per gram than water.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>{'rand1': 14795, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 23691}</t>
+          <t>{'rand1': 32745, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 21458}</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDE0Nzk1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDIzNjkxfQ=='</t>
+          <t>b'eydyYW5kMSc6IDMyNzQ1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDIxNDU4fQ=='</t>
         </is>
       </c>
     </row>
@@ -3568,24 +3617,26 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3.5 GHz is a clock speed.  Faster clock speed means more GHz.  
-The i5 and i7 are different models.  The i5 is a 3.5 GHz processor, the i7 is a 3.5 GHz processor with a turbo mode that can hit 4.7 GHz.</t>
+          <t xml:space="preserve">
+From what I've read, the i7 is more of a "performance" processor, while the i5 is more of a "power" processor.  The i7 has a higher thermal design power (TDP), which means it can handle more heat.  The i5 has a lower TDP, which means it runs cooler and uses less power.
+The i5 is what you'd get in a</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3.5 GHz isn't the speed of the processor. It's the speed of the processor's core, and the i5 and i7 have four cores each. So you're paying more for the i7 because it has four cores rather than two.
-Edit: I'm assuming you're talking about new i5 and i7 processors, not old ones.</t>
+          <t>3.5GHz is the clock speed of the processor. The i5 and i7 are also different in terms of the number of cores (which are the number of processors inside the chip).
+An i5 has 2 cores, an i7 has 4 cores. The core difference (4 vs 2) is the difference between i5 and i7.
+The i7 has a higher clock speed as well</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>{'rand1': 61339, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 51735}</t>
+          <t>{'rand1': 47466, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 75567}</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDYxMzM5LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDUxNzM1fQ=='</t>
+          <t>b'eydyYW5kMSc6IDQ3NDY2LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3NTU2N30='</t>
         </is>
       </c>
     </row>
@@ -3600,30 +3651,27 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1- Time. 
-Many of these cookies are baked off site, and then shipped to the store. 
-2- Ingredients. 
-The ingredients are designed to last for a long time. 
-3</t>
+          <t>1. It's cheaper to bake a whole batch of cookies at once rather than bake them individually. 
+2. The cookies are artificially flavored.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1. They are made with different ingredients.
-2. They are baked at different temperatures.
-3. They are baked for different amounts of time.
-4. They are stored at different temperatures.
-5.</t>
+          <t xml:space="preserve">1) They have a different ingredient (such as preservatives) that makes them last longer
+2) They are baked at a different temperature
+3) Different oils are used
+4) The ingredients are different
+</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>{'rand1': 48077, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 51940}</t>
+          <t>{'rand1': 64969, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 39609}</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQ4MDc3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA1MTk0MH0='</t>
+          <t>b'eydyYW5kMSc6IDY0OTY5LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAzOTYwOX0='</t>
         </is>
       </c>
     </row>
@@ -3638,27 +3686,24 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 things:
-1. When you wake up, you're pretty much starving.
-2. When you've eaten a meal, your body recognizes the insulin response.
-Both of these things make you feel hungrier faster.
-</t>
+          <t>12:00 is when people start to get hungry, due to the circadian rhythm. 
+If you don't eat breakfast, you probably don't get hungry until 16:00.</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1) If you eat breakfast before you wake up, you're more likely to eat something you don't actually want to. 2) If you sleep in, you're more likely to eat something you want.
-If you're hungry before your usual breakfast time, it's more likely that you're hungry because you're not eating breakfast.</t>
+          <t xml:space="preserve">
+For most people, breakfast is the first meal of the day.  You've gone a good 8-10 hours without eating.  You haven't had enough food for your body to use.  So you feel hungrier. </t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>{'rand1': 27068, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 7171}</t>
+          <t>{'rand1': 92296, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 30277}</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDI3MDY4LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3MTcxfQ=='</t>
+          <t>b'eydyYW5kMSc6IDkyMjk2LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDMwMjc3fQ=='</t>
         </is>
       </c>
     </row>
@@ -3673,29 +3718,27 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1. You would become addicted. 2. You would become addicted to the drug that is making you addicted to it. 3. You would become addicted to that drug, that is making you addicted to it, that is making you addicted to it. 4. You would become addicted to that drug, that is making you addicted to it, that is making you addicted to it, that is making you addicted to it. 5.</t>
+          <t>1) If he/she is not an addict, he/she will likely feel pretty bad from the drug, and go to the doctor.
+2) If he/she is an addict, they will probably continue to use the drug until he/she is in a situation where he/she cannot get it.  Then, he/she will try to get help.</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1) They would become addicted and would have a very hard time stopping.
-2) They would have a period of intense withdrawal.
-3) They would become depressed.
-4) They would become anxious.
-5) They would have a hard time sleeping.
-6) They would have a period of intense paranoia.
-7) They would have a hard time eating.
-&amp;gt;What would happen if I took 20</t>
+          <t xml:space="preserve">
+they'd be addicted to it. 
+Sugar, caffeine, and nicotine are all addictive substances. 
+Edit: 
+Also, methamphetamines are a stimulant, and are addictive. </t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>{'rand1': 43997, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 46341}</t>
+          <t>{'rand1': 94722, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 51508}</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQzOTk3LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0NjM0MX0='</t>
+          <t>b'eydyYW5kMSc6IDk0NzIyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDUxNTA4fQ=='</t>
         </is>
       </c>
     </row>
@@ -3710,30 +3753,25 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1. Their joints are not as strong as the average joint. 
-2. Their joints are not as stable as the average joint.
-3. Their muscles are stronger than the average joint. 
-4. Their muscles are more stable than the average joint. 
-Their joints are not as good at holding their position.</t>
+          <t xml:space="preserve">
+I'm double jointed in my fingers and toes. I can put my tongue between my thumb and my pointer finger. No big deal. </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Genetics. 
-2. Practice. 
-3. Flexibility. 
-4. Muscle strength. 
-</t>
+          <t>1. Increased flexibility in the joint.
+2. Increased muscle control.
+3. Increased strength in the muscles surrounding the joint.</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>{'rand1': 44731, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 85590}</t>
+          <t>{'rand1': 94134, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 45309}</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQ0NzMxLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDg1NTkwfQ=='</t>
+          <t>b'eydyYW5kMSc6IDk0MTM0LCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA0NTMwOX0='</t>
         </is>
       </c>
     </row>
@@ -3748,24 +3786,24 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">99% of the time, no. People who smile or laugh all the time are usually not mentally ill. They might be, but the reason they smile or laugh is because they have something to smile or laugh about. 
-Mental illness makes you not feel happiness, or not feel anything at all. </t>
+          <t xml:space="preserve">
+I'm a mental health nurse and I can tell you that the people who are the happiest are the ones who are in denial.
+There is this huge stigma against mental illness and people are afraid to get help so they just keep on going, pretending to be okay. </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Depression is a very complex condition, and it can be very difficult to tell if someone is depressed, or just very sad. 
-2. I'm a mental health nurse. I look at the faces of people with depression, and they don't smile. They look sad. </t>
+          <t xml:space="preserve"> In my experience, they aren't.  It's more like they've given up on trying to suppress the symptoms of their illness.  They've decided to just accept that they're not going to be well, and they're going to laugh at everything in the hopes that it will make them feel a little better.  I've seen a few people do this, and it's really sad.</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>{'rand1': 93622, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 10857}</t>
+          <t>{'rand1': 94338, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 29405}</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDkzNjIyLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiAxMDg1N30='</t>
+          <t>b'eydyYW5kMSc6IDk0MzM4LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDI5NDA1fQ=='</t>
         </is>
       </c>
     </row>
@@ -3780,24 +3818,23 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. I'm sure they make more off the tickets than they do off the printing fee. 
-2. You could just show up at the venue and print them there for free. </t>
+          <t>1) It's not a fee for printing them, it's a fee for processing your order.
+2) The cost of shipping is already included in the price of the ticket.</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2.50 is the cost of the paper ticket they print, and the cost of their employees time.
-If you can print at home, they don't have to pay for the paper or the employee time.</t>
+          <t>25 cents is the cost of postage.  If they mailed you the tickets, they'd have to pay postage.  So they're already getting reimbursed.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>{'rand1': 70980, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 32412}</t>
+          <t>{'rand1': 92645, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 90540}</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDcwOTgwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDMyNDEyfQ=='</t>
+          <t>b'eydyYW5kMSc6IDkyNjQ1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDkwNTQwfQ=='</t>
         </is>
       </c>
     </row>
@@ -3812,25 +3849,27 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">1) The body is warm and healthy.  When you die, all your cells die.  This is why you can often touch a dead body and not feel anything.  But a live body has plenty of cells that are still moving, so you can feel it.  The cells of a dead body are just dead.  But a live body has a lot of cells that are moving, so you can feel it.
-2) The cells of a live body are moving. </t>
+          <t xml:space="preserve">1) A live body is full of chemicals that are constantly being formed and broken down. That is the process of life.
+2) A dead body has no chemicals being formed and no chemicals being broken down.
+3) A live body is full of chemicals that are constantly being formed and broken down. That is the process of life.
+4) A dead body has no chemicals being formed and no chemicals being broken down.
+</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. Dead body has no activity in the brain. 
-2. Live body is conscious. 
-3. Dead body is still a body. </t>
+          <t>1) The body is alive because it is made of organic material, and organic material is alive 2) The body is dead because it has no more organic material 3) The body is dead because of organic material 4) The body is dead because of organic material
+And so on.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>{'rand1': 46525, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 95936}</t>
+          <t>{'rand1': 44420, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 20500}</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDQ2NTI1LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDk1OTM2fQ=='</t>
+          <t>b'eydyYW5kMSc6IDQ0NDIwLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDIwNTAwfQ=='</t>
         </is>
       </c>
     </row>
@@ -3845,28 +3884,28 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2 things:
-1) she's got a sense of smell 1000 times better than yours.
-2) she's not human. She's not supposed to be able to eat human food, and her body is not adapted to it.  This is a big part of what makes her sick.</t>
+          <t>1) She can smell it.  Dogs have a much better sense of smell than humans, and she can smell the slightest whiff of something that you can't.
+2) She knows that you're not going to give her any if she doesn't do something you want her to do.  She's leveraging the food to get you to do something she wants.
+3) She knows that if you give</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1. Your dog is biologically programmed to eat whatever you eat.
-2. Your dog is also biologically programmed to get a treat from you when it does something you like.
-3. Your dog has learned that when you eat, it gets a treat.
-4. Your dog has also learned that when you eat, it gets to eat with you.
-5. Your dog is excited to eat with you.</t>
+          <t>1. Food is a chemical, and the smell of food is a chemical. 
+2. The smell of food is a chemical that the dog has been conditioned to react to. 
+3. Conditioning is a learned behavior. 
+4. The smell of food is a chemical that the dog has been conditioned to react to when he's hungry. 
+5. The smell of food is a</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>{'rand1': 69260, 'do_swap': False, 'answer1': '7B_cp-2000.answer', 'answer2': '7B-chat_cp-2500.answer', 'rand2': 77883}</t>
+          <t>{'rand1': 30152, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 96475}</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDY5MjYwLCAnZG9fc3dhcCc6IEZhbHNlLCAnYW5zd2VyMSc6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdhbnN3ZXIyJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAncmFuZDInOiA3Nzg4M30='</t>
+          <t>b'eydyYW5kMSc6IDMwMTUyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDk2NDc1fQ=='</t>
         </is>
       </c>
     </row>
@@ -3881,23 +3920,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. They are in the same order as humans, so we can look at the frontal lobe. It's smoother in the Atlantic salmon brain. 
-2. They don't have the same pesticides and other chemicals in their food as the Pacific salmon. </t>
+          <t>1. Salmon from the Pacific have a lot of parasites. 2. Salmon from the Atlantic is a different species.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>300 years ago, there was a huge amount of pollution in the Atlantic - human, animal, industrial. This led to the collapse of the cod population and the widespread use of aquaculture (salmon farming) in the Atlantic. The salmon from the Atlantic have been farmed for so long that their immune systems have adapted to the unique environment created by the farms. As a result, they are safe</t>
+          <t>1) Salmon from the Pacific are exposed to a lot more pollution 2) Salmon from the Atlantic are usually farmed and not allowed to go to sea for a certain period 3) Salmon from the Atlantic are usually (not always) smaller than salmon from the Pacific 4) Salmon from the Pacific can be exposed to a lot of different parasites 5) Salmon from the Atlantic are usually farmed and</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>{'rand1': 66854, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 61004}</t>
+          <t>{'rand1': 24642, 'do_swap': True, 'answer1': '7B-chat_cp-2500.answer', 'answer2': '7B_cp-2000.answer', 'rand2': 14825}</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>b'eydyYW5kMSc6IDY2ODU0LCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDYxMDA0fQ=='</t>
+          <t>b'eydyYW5kMSc6IDI0NjQyLCAnZG9fc3dhcCc6IFRydWUsICdhbnN3ZXIxJzogJzdCLWNoYXRfY3AtMjUwMC5hbnN3ZXInLCAnYW5zd2VyMic6ICc3Ql9jcC0yMDAwLmFuc3dlcicsICdyYW5kMic6IDE0ODI1fQ=='</t>
         </is>
       </c>
     </row>
